--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177150\Documents\Projects\BC Parks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177012\Documents\BC Parks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4505F4BC-A8A1-48AD-81F9-4DC07ACE8D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD59D07D-4C14-4D1B-8756-A6528DC8A2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>Table</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Submitter</t>
-  </si>
-  <si>
     <t>Public Advisory XRef</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Used to display the date the advisory was originally posted; this is not necessarily the date the record was created</t>
   </si>
   <si>
-    <t>Used to estimate an end date; the status should be assessed before this date</t>
-  </si>
-  <si>
     <t>Indicates the date the advisory was deactivated</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>UploadArea</t>
-  </si>
-  <si>
     <t>MarineArea</t>
   </si>
   <si>
@@ -243,15 +234,9 @@
     <t>ORCS[]</t>
   </si>
   <si>
-    <t>Flood, Avalaunch etc</t>
-  </si>
-  <si>
     <t>Related to EventType</t>
   </si>
   <si>
-    <t>Related to AccessStatus</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -267,18 +252,12 @@
     <t>All in One table</t>
   </si>
   <si>
-    <t>Separate table</t>
-  </si>
-  <si>
     <t>Coordinates</t>
   </si>
   <si>
     <t>Link to PAR Data</t>
   </si>
   <si>
-    <t>Child proteced Areas like sites</t>
-  </si>
-  <si>
     <t>List of sections</t>
   </si>
   <si>
@@ -288,14 +267,107 @@
     <t>Data Source</t>
   </si>
   <si>
-    <t>Open,Closed</t>
+    <t>ORCS Site Number</t>
+  </si>
+  <si>
+    <t>Site Number</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Established Date</t>
+  </si>
+  <si>
+    <t>Repealed Date</t>
+  </si>
+  <si>
+    <t>Sites[]</t>
+  </si>
+  <si>
+    <t>references Sites entity</t>
+  </si>
+  <si>
+    <t>uplandArea</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>Low; Medium; High</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Should this be in one field, or should it be separated to Latitude/Longitude (digital lat/long)?</t>
+  </si>
+  <si>
+    <t>Used to estimate an end date; the status should be assessed before this date; equivalent to rescinded date if it's a closure</t>
+  </si>
+  <si>
+    <t>Inactive; Draft; Approval Requested; Approved; Active</t>
+  </si>
+  <si>
+    <t>open, full closure, partial closure, inaccessible, warning, restricted; permit required, closed to the public</t>
+  </si>
+  <si>
+    <t>Park Access Status</t>
+  </si>
+  <si>
+    <t>Flood, Avalanch etc.</t>
+  </si>
+  <si>
+    <t>Links[]</t>
+  </si>
+  <si>
+    <t>An option to add any number of links and specify the link title and type there?</t>
+  </si>
+  <si>
+    <t>Related to AccessStatus (Indicates Park Access Status)</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>SubmittedBy</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Low, Medium, High</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Link to Link</t>
+  </si>
+  <si>
+    <t>Link to Urgent</t>
+  </si>
+  <si>
+    <t>Link to AccessStatus</t>
+  </si>
+  <si>
+    <t>Link to EventType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,8 +413,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +440,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -388,11 +497,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,9 +565,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,583 +896,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9256A4-85B0-483D-ABA5-01E16592AE65}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="19.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C11" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C20" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="G36" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+    </row>
+    <row r="50" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+    </row>
+    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="23"/>
+    </row>
+    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="22"/>
+    </row>
+    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="22"/>
+    </row>
+    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="29"/>
+    </row>
+    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="22"/>
+    </row>
+    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="22"/>
+    </row>
+    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="22"/>
+    </row>
+    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="22"/>
+    </row>
+    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="22"/>
+    </row>
+    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="22"/>
+    </row>
+    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="22"/>
+    </row>
+    <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="22"/>
+    </row>
+    <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="22"/>
+    </row>
+    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="22"/>
+    </row>
+    <row r="78" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9"/>
+      <c r="B78" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="22"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="28"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="23"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="C82" s="22"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="22"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="22"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="22"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="22"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="22"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="22"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="22"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="22"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="22"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="C93" s="28"/>
+      <c r="F93" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="G94" s="20"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="C95" s="22"/>
+      <c r="D95" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G95" s="20"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G96" s="20"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="28"/>
+      <c r="F97" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+      <c r="G97" s="20"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="23"/>
+      <c r="G98" s="20"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="22"/>
+      <c r="D99" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G99" s="20"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F100" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G100" s="20"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15" t="s">
+      <c r="B101" s="28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E79" s="18"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E80" s="18"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="18"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E82" s="18"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E83" s="18"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="18"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D85" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E85" s="18"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="C101" s="28"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="G93:G100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177150\Documents\Projects\BC Parks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177150\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4505F4BC-A8A1-48AD-81F9-4DC07ACE8D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCECDFA0-47AF-4EFF-B983-B915B95C4DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
+    <workbookView xWindow="4740" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="BCParks" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
   <si>
     <t>Table</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Submitter</t>
-  </si>
-  <si>
     <t>Public Advisory XRef</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Used to display the date the advisory was originally posted; this is not necessarily the date the record was created</t>
   </si>
   <si>
-    <t>Used to estimate an end date; the status should be assessed before this date</t>
-  </si>
-  <si>
     <t>Indicates the date the advisory was deactivated</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>RepealedDate</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>MarineProtectedArea</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>UploadArea</t>
-  </si>
-  <si>
     <t>MarineArea</t>
   </si>
   <si>
@@ -243,15 +231,9 @@
     <t>ORCS[]</t>
   </si>
   <si>
-    <t>Flood, Avalaunch etc</t>
-  </si>
-  <si>
     <t>Related to EventType</t>
   </si>
   <si>
-    <t>Related to AccessStatus</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -267,18 +249,9 @@
     <t>All in One table</t>
   </si>
   <si>
-    <t>Separate table</t>
-  </si>
-  <si>
-    <t>Coordinates</t>
-  </si>
-  <si>
     <t>Link to PAR Data</t>
   </si>
   <si>
-    <t>Child proteced Areas like sites</t>
-  </si>
-  <si>
     <t>List of sections</t>
   </si>
   <si>
@@ -288,14 +261,128 @@
     <t>Data Source</t>
   </si>
   <si>
-    <t>Open,Closed</t>
+    <t>ORCS Site Number</t>
+  </si>
+  <si>
+    <t>Site Number</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Established Date</t>
+  </si>
+  <si>
+    <t>Repealed Date</t>
+  </si>
+  <si>
+    <t>Sites[]</t>
+  </si>
+  <si>
+    <t>references Sites entity</t>
+  </si>
+  <si>
+    <t>uplandArea</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>Low; Medium; High</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Used to estimate an end date; the status should be assessed before this date; equivalent to rescinded date if it's a closure</t>
+  </si>
+  <si>
+    <t>Inactive; Draft; Approval Requested; Approved; Active</t>
+  </si>
+  <si>
+    <t>open, full closure, partial closure, inaccessible, warning, restricted; permit required, closed to the public</t>
+  </si>
+  <si>
+    <t>Park Access Status</t>
+  </si>
+  <si>
+    <t>Flood, Avalanch etc.</t>
+  </si>
+  <si>
+    <t>Links[]</t>
+  </si>
+  <si>
+    <t>An option to add any number of links and specify the link title and type there?</t>
+  </si>
+  <si>
+    <t>Related to AccessStatus (Indicates Park Access Status)</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>SubmittedBy</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Low, Medium, High</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Link to Link</t>
+  </si>
+  <si>
+    <t>Link to Urgent</t>
+  </si>
+  <si>
+    <t>Link to AccessStatus</t>
+  </si>
+  <si>
+    <t>Link to EventType</t>
+  </si>
+  <si>
+    <t>Values will be -  open,full closure,partial closure,inaccessible,warning,restricted,permit required,closed to the public</t>
+  </si>
+  <si>
+    <t>Director's Order, Map,Evacuation, Information Bulletin</t>
+  </si>
+  <si>
+    <t>Link to ManagementArea</t>
+  </si>
+  <si>
+    <t>Link to Protected Area or Site</t>
+  </si>
+  <si>
+    <t>ManagementAreaNumber</t>
+  </si>
+  <si>
+    <t>SectionNumber</t>
+  </si>
+  <si>
+    <t>RegionNumber</t>
+  </si>
+  <si>
+    <t>EventID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,8 +428,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +461,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -388,11 +518,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,9 +586,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,583 +922,915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9256A4-85B0-483D-ABA5-01E16592AE65}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="19.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C11" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C20" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="23" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="C30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+    </row>
+    <row r="50" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A52" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="28"/>
+    </row>
+    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="21"/>
+    </row>
+    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="21"/>
+    </row>
+    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="21"/>
+    </row>
+    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="21"/>
+    </row>
+    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="21"/>
+    </row>
+    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="21"/>
+    </row>
+    <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="21"/>
+    </row>
+    <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="21"/>
+    </row>
+    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="21"/>
+    </row>
+    <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="21"/>
+    </row>
+    <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+      <c r="B80" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="22"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="21"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="21"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="21"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="21"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="21"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="21"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="21"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="21"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="21"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="F95" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="22"/>
+      <c r="G96" s="32"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="C97" s="21"/>
+      <c r="D97" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" s="32"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="32"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="F99" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G99" s="32"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="22"/>
+      <c r="G100" s="32"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
+      <c r="C101" s="21"/>
+      <c r="D101" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" s="32"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F102" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G102" s="32"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E79" s="18"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E80" s="18"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="18"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E82" s="18"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E83" s="18"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="18"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D85" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E85" s="18"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+      <c r="B103" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="27"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="C104" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="G95:G102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177012\Documents\BC Parks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177150\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD59D07D-4C14-4D1B-8756-A6528DC8A2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCECDFA0-47AF-4EFF-B983-B915B95C4DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
+    <workbookView xWindow="4740" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="BCParks" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
   <si>
     <t>Table</t>
   </si>
@@ -165,9 +165,6 @@
     <t>RepealedDate</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>MarineProtectedArea</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>All in One table</t>
   </si>
   <si>
-    <t>Coordinates</t>
-  </si>
-  <si>
     <t>Link to PAR Data</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Should this be in one field, or should it be separated to Latitude/Longitude (digital lat/long)?</t>
-  </si>
-  <si>
     <t>Used to estimate an end date; the status should be assessed before this date; equivalent to rescinded date if it's a closure</t>
   </si>
   <si>
@@ -361,13 +352,37 @@
   </si>
   <si>
     <t>Link to EventType</t>
+  </si>
+  <si>
+    <t>Values will be -  open,full closure,partial closure,inaccessible,warning,restricted,permit required,closed to the public</t>
+  </si>
+  <si>
+    <t>Director's Order, Map,Evacuation, Information Bulletin</t>
+  </si>
+  <si>
+    <t>Link to ManagementArea</t>
+  </si>
+  <si>
+    <t>Link to Protected Area or Site</t>
+  </si>
+  <si>
+    <t>ManagementAreaNumber</t>
+  </si>
+  <si>
+    <t>SectionNumber</t>
+  </si>
+  <si>
+    <t>RegionNumber</t>
+  </si>
+  <si>
+    <t>EventID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +431,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -542,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,9 +588,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -582,6 +600,14 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,11 +922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9256A4-85B0-483D-ABA5-01E16592AE65}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -927,38 +953,38 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>98</v>
+      <c r="C3" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>99</v>
+      <c r="C4" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>23</v>
@@ -966,11 +992,11 @@
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>99</v>
+      <c r="C5" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
@@ -978,35 +1004,35 @@
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>90</v>
+      <c r="C6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>99</v>
+      <c r="C7" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>99</v>
+      <c r="C8" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>24</v>
@@ -1014,11 +1040,11 @@
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>99</v>
+      <c r="C9" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>21</v>
@@ -1026,10 +1052,10 @@
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="22"/>
+      <c r="B10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="21"/>
       <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1037,127 +1063,129 @@
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>99</v>
+      <c r="C11" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>99</v>
+      <c r="C12" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>99</v>
+      <c r="C13" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>100</v>
+      <c r="C14" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>98</v>
+      <c r="B17" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>100</v>
+      <c r="C19" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>100</v>
+      <c r="C20" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>100</v>
+      <c r="B21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>107</v>
+      <c r="C22" s="31" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>108</v>
+      <c r="C23" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>98</v>
+      <c r="C24" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>38</v>
@@ -1165,71 +1193,71 @@
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="24" t="s">
-        <v>95</v>
+      <c r="B25" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>100</v>
+      <c r="B26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>100</v>
+      <c r="B27" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>100</v>
+      <c r="B28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>100</v>
+      <c r="B29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>106</v>
+      <c r="B30" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>100</v>
+      <c r="C31" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>34</v>
@@ -1237,11 +1265,11 @@
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="31" t="s">
-        <v>100</v>
+      <c r="C32" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>35</v>
@@ -1249,26 +1277,26 @@
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>100</v>
+      <c r="C33" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>98</v>
+      <c r="C34" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>37</v>
@@ -1276,11 +1304,11 @@
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>100</v>
+      <c r="C35" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>25</v>
@@ -1288,68 +1316,68 @@
     </row>
     <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="G36" s="19" t="s">
-        <v>89</v>
-      </c>
+      <c r="B36" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>102</v>
+      <c r="C37" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>102</v>
+      <c r="C38" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>99</v>
+      <c r="C39" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>100</v>
+      <c r="C40" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>99</v>
+      <c r="C41" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>100</v>
+      <c r="C42" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -1376,99 +1404,105 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
     </row>
     <row r="50" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>100</v>
+      <c r="C50" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
+    <row r="52" spans="1:6" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A52" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="34" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22" t="s">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
     </row>
     <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="28" t="s">
+      <c r="A55" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
     </row>
     <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="28" t="s">
+      <c r="A57" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
+      <c r="C57" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22" t="s">
-        <v>54</v>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22" t="s">
-        <v>45</v>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1477,307 +1511,323 @@
       <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="11"/>
       <c r="E61" s="18"/>
       <c r="F61" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="23"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="22"/>
+      <c r="B63" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="21"/>
       <c r="D63" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="22"/>
+      <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="22"/>
+      <c r="B65" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="21"/>
     </row>
     <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="29"/>
+      <c r="B66" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="28"/>
     </row>
     <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" s="22"/>
+      <c r="B67" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="21"/>
     </row>
     <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="22"/>
+      <c r="B68" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="21"/>
       <c r="D68" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" s="22"/>
+      <c r="B69" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="21"/>
     </row>
     <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="22"/>
+      <c r="B70" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="21"/>
     </row>
     <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="22"/>
+      <c r="B71" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="21"/>
     </row>
     <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="22"/>
+      <c r="C72" s="21"/>
     </row>
     <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="22"/>
+      <c r="C73" s="21"/>
     </row>
     <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="22"/>
+      <c r="B74" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="21"/>
     </row>
     <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="22"/>
+      <c r="B75" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="21"/>
     </row>
     <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
-      <c r="B76" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="22"/>
+      <c r="B76" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="21"/>
     </row>
     <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="21"/>
+    </row>
+    <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="22"/>
-    </row>
-    <row r="78" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="22" t="s">
+      <c r="C78" s="21"/>
+    </row>
+    <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+      <c r="B80" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="22"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="28"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="23"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="22"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="22"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="21"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="21"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="21"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="21"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="22"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="22" t="s">
+      <c r="C88" s="21"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="21"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="21"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="21"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="21"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="F95" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="22"/>
+      <c r="G96" s="32"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="22"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="22"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="22"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="22"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="22"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="22"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" s="22"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" s="22"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="27" t="s">
+      <c r="C97" s="21"/>
+      <c r="D97" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" s="32"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="32"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B93" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="28"/>
-      <c r="F93" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" s="23"/>
-      <c r="G94" s="20"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="22" t="s">
+      <c r="B99" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="F99" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G99" s="32"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="22"/>
+      <c r="G100" s="32"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C95" s="22"/>
-      <c r="D95" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G95" s="20"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G96" s="20"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="27" t="s">
+      <c r="C101" s="21"/>
+      <c r="D101" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" s="32"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F102" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G102" s="32"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B97" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" s="28"/>
-      <c r="F97" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G97" s="20"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B98" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C98" s="23"/>
-      <c r="G98" s="20"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B99" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G99" s="20"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F100" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G100" s="20"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="28"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B102" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="23"/>
+      <c r="B103" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="27"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G93:G100"/>
+    <mergeCell ref="G95:G102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>

--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177150\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177012\Documents\BC Parks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCECDFA0-47AF-4EFF-B983-B915B95C4DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A27660-1928-49FB-8063-AE70EA6CFD6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="BCParks" sheetId="1" r:id="rId1"/>
-    <sheet name="BCGNIS" sheetId="2" r:id="rId2"/>
+    <sheet name="BCParks - old" sheetId="3" r:id="rId2"/>
+    <sheet name="BCGNIS" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="123">
   <si>
     <t>Table</t>
   </si>
@@ -376,13 +377,40 @@
   </si>
   <si>
     <t>EventID</t>
+  </si>
+  <si>
+    <t>Sets the default view extents / zoom level for the location on a web map</t>
+  </si>
+  <si>
+    <t>Moved to Links[]</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Link to AdvisoryStatus</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>x - deleted field</t>
+  </si>
+  <si>
+    <t>Public Advisory History</t>
+  </si>
+  <si>
+    <t>Copy of PublicAdvisory, will hold history of updates within an advisory</t>
+  </si>
+  <si>
+    <t>AdvisoryNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,8 +469,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +524,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,14 +654,25 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,12 +989,949 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9256A4-85B0-483D-ABA5-01E16592AE65}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="38"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+    </row>
+    <row r="52" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="28"/>
+    </row>
+    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="21"/>
+    </row>
+    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="21"/>
+    </row>
+    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="21"/>
+    </row>
+    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="21"/>
+    </row>
+    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="21"/>
+    </row>
+    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="21"/>
+    </row>
+    <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="21"/>
+    </row>
+    <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="21"/>
+    </row>
+    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="21"/>
+    </row>
+    <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+      <c r="B80" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="22"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="21"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="21"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="21"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="21"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="21"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="21"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="21"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="21"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="21"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="F95" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="22"/>
+      <c r="G96" s="36"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" s="36"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="36"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="F99" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G99" s="36"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="22"/>
+      <c r="G100" s="36"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="21"/>
+      <c r="D101" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" s="36"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F102" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G102" s="36"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="27"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G95:G102"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66662F61-F679-43AD-99EF-C80D953E466D}">
+  <dimension ref="A1:G104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -941,7 +1943,7 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,14 +1964,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="22" t="s">
         <v>7</v>
@@ -978,7 +1980,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="21" t="s">
         <v>15</v>
@@ -990,7 +1992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="21" t="s">
         <v>16</v>
@@ -1002,7 +2004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="21" t="s">
         <v>17</v>
@@ -1010,11 +2012,11 @@
       <c r="C6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
@@ -1026,7 +2028,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="21" t="s">
         <v>19</v>
@@ -1038,7 +2040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="21" t="s">
         <v>20</v>
@@ -1050,7 +2052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="21" t="s">
         <v>63</v>
@@ -1061,7 +2063,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="21" t="s">
         <v>10</v>
@@ -1070,7 +2072,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="21" t="s">
         <v>11</v>
@@ -1079,7 +2081,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="21" t="s">
         <v>12</v>
@@ -1088,7 +2090,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="21" t="s">
         <v>13</v>
@@ -1097,7 +2099,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>26</v>
       </c>
@@ -1107,7 +2109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="22" t="s">
         <v>113</v>
@@ -1116,7 +2118,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="23" t="s">
         <v>64</v>
@@ -1128,7 +2130,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="21" t="s">
         <v>3</v>
@@ -1137,7 +2139,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="21" t="s">
         <v>4</v>
@@ -1146,7 +2148,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="21" t="s">
         <v>98</v>
@@ -1155,7 +2157,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="30" t="s">
         <v>29</v>
@@ -1167,7 +2169,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="30" t="s">
         <v>14</v>
@@ -1179,7 +2181,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="21" t="s">
         <v>31</v>
@@ -1191,7 +2193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="23" t="s">
         <v>92</v>
@@ -1203,7 +2205,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="21" t="s">
         <v>56</v>
@@ -1211,8 +2213,11 @@
       <c r="C26" s="30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="21" t="s">
         <v>57</v>
@@ -1220,8 +2225,11 @@
       <c r="C27" s="30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="21" t="s">
         <v>58</v>
@@ -1229,8 +2237,11 @@
       <c r="C28" s="30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="21" t="s">
         <v>59</v>
@@ -1238,8 +2249,11 @@
       <c r="C29" s="30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="23" t="s">
         <v>83</v>
@@ -1251,7 +2265,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="24" t="s">
         <v>33</v>
@@ -1263,7 +2277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="21" t="s">
         <v>32</v>
@@ -1275,7 +2289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="21" t="s">
         <v>28</v>
@@ -1290,7 +2304,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="21" t="s">
         <v>30</v>
@@ -1302,7 +2316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="21" t="s">
         <v>5</v>
@@ -1314,7 +2328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="25" t="s">
         <v>45</v>
@@ -1324,7 +2338,7 @@
       </c>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="25" t="s">
         <v>46</v>
@@ -1334,7 +2348,7 @@
       </c>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="25" t="s">
         <v>47</v>
@@ -1342,9 +2356,12 @@
       <c r="C38" s="21" t="s">
         <v>99</v>
       </c>
+      <c r="D38" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="21" t="s">
         <v>10</v>
@@ -1353,7 +2370,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="21" t="s">
         <v>11</v>
@@ -1362,7 +2379,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="21" t="s">
         <v>12</v>
@@ -1371,7 +2388,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="21" t="s">
         <v>13</v>
@@ -1380,37 +2397,37 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
     </row>
-    <row r="50" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="21" t="s">
         <v>14</v>
@@ -1422,7 +2439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:6" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
@@ -1431,11 +2448,11 @@
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="21" t="s">
         <v>29</v>
@@ -1450,10 +2467,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
         <v>83</v>
       </c>
@@ -1467,10 +2484,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
         <v>101</v>
       </c>
@@ -1484,7 +2501,7 @@
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="21" t="s">
         <v>53</v>
@@ -1496,7 +2513,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="21" t="s">
         <v>44</v>
@@ -1505,12 +2522,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
         <v>39</v>
       </c>
@@ -1522,14 +2539,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="22"/>
     </row>
-    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="21" t="s">
         <v>80</v>
@@ -1539,35 +2556,35 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="21"/>
     </row>
-    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C65" s="21"/>
     </row>
-    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="28"/>
     </row>
-    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C67" s="21"/>
     </row>
-    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="21" t="s">
         <v>43</v>
@@ -1577,77 +2594,80 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C69" s="21"/>
     </row>
-    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C70" s="21"/>
     </row>
-    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="21"/>
     </row>
-    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="21"/>
     </row>
-    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C73" s="21"/>
     </row>
-    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C74" s="21"/>
     </row>
-    <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C75" s="21"/>
     </row>
-    <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C76" s="21"/>
     </row>
-    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C77" s="21"/>
     </row>
-    <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C78" s="21"/>
-    </row>
-    <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="21" t="s">
         <v>62</v>
@@ -1656,7 +2676,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="30" t="s">
         <v>29</v>
@@ -1665,81 +2685,81 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="A82" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B83" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C83" s="22"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C84" s="21"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B85" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C85" s="21"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B86" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C86" s="21"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B87" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C87" s="21"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B88" s="21" t="s">
         <v>78</v>
       </c>
       <c r="C88" s="21"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B89" s="21" t="s">
         <v>79</v>
       </c>
       <c r="C89" s="21"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C90" s="21"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C91" s="21"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C92" s="21"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B93" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="21"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="A95" s="26" t="s">
         <v>60</v>
       </c>
@@ -1750,18 +2770,18 @@
       <c r="F95" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G95" s="32" t="s">
+      <c r="G95" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B96" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C96" s="22"/>
-      <c r="G96" s="32"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G96" s="36"/>
+    </row>
+    <row r="97" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B97" s="21" t="s">
         <v>67</v>
       </c>
@@ -1769,12 +2789,12 @@
       <c r="D97" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G97" s="32"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G98" s="32"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G97" s="36"/>
+    </row>
+    <row r="98" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+      <c r="G98" s="36"/>
+    </row>
+    <row r="99" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="A99" s="26" t="s">
         <v>61</v>
       </c>
@@ -1785,16 +2805,16 @@
       <c r="F99" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G99" s="32"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G99" s="36"/>
+    </row>
+    <row r="100" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B100" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C100" s="22"/>
-      <c r="G100" s="32"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="36"/>
+    </row>
+    <row r="101" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B101" s="21" t="s">
         <v>68</v>
       </c>
@@ -1802,15 +2822,15 @@
       <c r="D101" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="32"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="36"/>
+    </row>
+    <row r="102" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="F102" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="32"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="36"/>
+    </row>
+    <row r="103" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -1819,7 +2839,7 @@
       </c>
       <c r="C103" s="27"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="12" x14ac:dyDescent="0.2">
       <c r="B104" s="22" t="s">
         <v>66</v>
       </c>
@@ -1830,11 +2850,10 @@
     <mergeCell ref="G95:G102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7ED20A-5A3A-453C-8A81-923C8953B4C9}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177012\Documents\BC Parks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A27660-1928-49FB-8063-AE70EA6CFD6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{003AE97F-B474-4854-A4B4-6C59A1948941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
+    <workbookView xWindow="6780" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="BCParks" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="142">
   <si>
     <t>Table</t>
   </si>
@@ -404,13 +404,70 @@
   </si>
   <si>
     <t>AdvisoryNumber</t>
+  </si>
+  <si>
+    <t>RegionName</t>
+  </si>
+  <si>
+    <t>SectionName</t>
+  </si>
+  <si>
+    <t>ManagementAreaName</t>
+  </si>
+  <si>
+    <t>ORCSSiteNumber</t>
+  </si>
+  <si>
+    <t>SiteNumber</t>
+  </si>
+  <si>
+    <t>SiteName</t>
+  </si>
+  <si>
+    <t>UnofficialSite</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>UplandArea</t>
+  </si>
+  <si>
+    <t>removed spaces to match standard field name format</t>
+  </si>
+  <si>
+    <t>changed to upper-case U for consistency</t>
+  </si>
+  <si>
+    <t>Start date of the event</t>
+  </si>
+  <si>
+    <t>Also referred to as 'PostDate'; used to schedule the start date and to display the date the advisory was posted; this is not necessarily the date the record was created and is not necessarily the event start date.</t>
+  </si>
+  <si>
+    <t>Regions[]</t>
+  </si>
+  <si>
+    <t>Link to Region</t>
+  </si>
+  <si>
+    <t>Link to Section</t>
+  </si>
+  <si>
+    <t>Used to apply the advisory to region(s)</t>
+  </si>
+  <si>
+    <t>Used to apply the advisory to section(s)</t>
+  </si>
+  <si>
+    <t>Used to apply the advisory to management area(s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +530,14 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -617,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,9 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -673,6 +735,13 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,11 +1056,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9256A4-85B0-483D-ABA5-01E16592AE65}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1013,7 +1082,9 @@
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1102,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>119</v>
       </c>
       <c r="C2" s="1"/>
@@ -1062,8 +1133,8 @@
       <c r="C5" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
+      <c r="D5" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1074,8 +1145,8 @@
       <c r="C6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
+      <c r="D6" s="19" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1115,7 +1186,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +1198,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -1139,10 +1210,10 @@
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1151,127 +1222,121 @@
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>97</v>
+      <c r="B13" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>97</v>
+      <c r="B14" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>97</v>
+      <c r="B15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>94</v>
+      <c r="B16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>65</v>
+      <c r="B17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="21" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G22" s="32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B23" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>97</v>
@@ -1279,278 +1344,308 @@
       <c r="D23" s="35" t="s">
         <v>115</v>
       </c>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>84</v>
-      </c>
+      <c r="A24" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="24" t="s">
-        <v>33</v>
+      <c r="A25" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>34</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="36" t="s">
+        <v>116</v>
+      </c>
       <c r="B26" s="21" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>88</v>
-      </c>
+      <c r="B27" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="21" t="s">
-        <v>30</v>
+      <c r="B28" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="21" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="19"/>
+      <c r="B30" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="19"/>
+      <c r="B31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C35" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D35" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="21" t="s">
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="21" t="s">
+    <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="21" t="s">
+      <c r="C37" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="21" t="s">
+    <row r="39" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
+      <c r="C39" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+    <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15" t="s">
+    <row r="44" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
+    <row r="45" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17" t="s">
+    <row r="46" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+    <row r="48" spans="1:7" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A48" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
-        <v>28</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
-      <c r="D48" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="19"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
+      <c r="D48" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
       <c r="B49" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="37"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="s">
         <v>28</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
-        <v>14</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
-    </row>
-    <row r="52" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
         <v>14</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="26" t="s">
-        <v>83</v>
       </c>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
-      <c r="D54" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="21" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>97</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1558,365 +1653,415 @@
     </row>
     <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B60" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21" t="s">
+      <c r="C60" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="4" t="s">
+      <c r="C61" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
+      <c r="C62" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="4" t="s">
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="22" t="s">
+    <row r="65" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="22"/>
-    </row>
-    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="21" t="s">
+      <c r="C65" s="22"/>
+    </row>
+    <row r="66" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="6" t="s">
+      <c r="C66" s="21"/>
+      <c r="D66" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="21"/>
-    </row>
-    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="21"/>
-    </row>
-    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="28"/>
-    </row>
-    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="21" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C67" s="21"/>
     </row>
-    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="21" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C68" s="21"/>
-      <c r="D68" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="21"/>
-    </row>
-    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="28"/>
+      <c r="G69" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C70" s="21"/>
     </row>
-    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C71" s="21"/>
-    </row>
-    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="21" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C72" s="21"/>
     </row>
-    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="21" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C73" s="21"/>
     </row>
-    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="21" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C74" s="21"/>
     </row>
-    <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C75" s="21"/>
     </row>
-    <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C76" s="21"/>
     </row>
-    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="21" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C77" s="21"/>
     </row>
-    <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C78" s="21"/>
-      <c r="D78" s="35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="21"/>
+    </row>
+    <row r="80" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="21"/>
+    </row>
+    <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C82" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="30" t="s">
+    <row r="83" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C83" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="26" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="22"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="21" t="s">
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="22"/>
+      <c r="G86" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="4"/>
+      <c r="B87" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" s="21"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="21"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="43" t="s">
         <v>66</v>
-      </c>
-      <c r="C84" s="21"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="21"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="21"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="21"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C88" s="21"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="C89" s="21"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C90" s="21"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="21" t="s">
-        <v>45</v>
+      <c r="B91" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="C91" s="21"/>
+      <c r="G91" s="45" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="21" t="s">
-        <v>46</v>
+      <c r="B92" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C92" s="21"/>
+      <c r="G92" s="45" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B93" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="21"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="21"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" s="21"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="21"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="26" t="s">
+      <c r="C96" s="21"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B100" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C95" s="27"/>
-      <c r="F95" s="4" t="s">
+      <c r="C100" s="27"/>
+      <c r="F100" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G95" s="36" t="s">
+      <c r="G100" s="46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" s="22"/>
-      <c r="G96" s="36"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="21" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="22"/>
+      <c r="G101" s="46"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="4" t="s">
+      <c r="C102" s="21"/>
+      <c r="D102" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G97" s="36"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G98" s="36"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="26" t="s">
+      <c r="G102" s="46"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="46"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B104" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="F99" s="4" t="s">
+      <c r="C104" s="27"/>
+      <c r="F104" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G99" s="36"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B100" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" s="22"/>
-      <c r="G100" s="36"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B101" s="21" t="s">
+      <c r="G104" s="46"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="22"/>
+      <c r="G105" s="46"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C101" s="21"/>
-      <c r="D101" s="4" t="s">
+      <c r="C106" s="21"/>
+      <c r="D106" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="36"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F102" s="4" t="s">
+      <c r="G106" s="46"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F107" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="36"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="26" t="s">
+      <c r="G107" s="46"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B108" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="27"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B104" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C104" s="22"/>
+      <c r="C108" s="27"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G95:G102"/>
+    <mergeCell ref="G100:G107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
@@ -1931,7 +2076,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -1943,7 +2088,7 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1964,14 +2109,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="22" t="s">
         <v>7</v>
@@ -1980,7 +2125,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="21" t="s">
         <v>15</v>
@@ -1992,7 +2137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="21" t="s">
         <v>16</v>
@@ -2004,7 +2149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="21" t="s">
         <v>17</v>
@@ -2016,7 +2161,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
@@ -2028,7 +2173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="21" t="s">
         <v>19</v>
@@ -2040,7 +2185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="21" t="s">
         <v>20</v>
@@ -2052,7 +2197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="21" t="s">
         <v>63</v>
@@ -2063,7 +2208,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="21" t="s">
         <v>10</v>
@@ -2072,7 +2217,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="21" t="s">
         <v>11</v>
@@ -2081,7 +2226,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="21" t="s">
         <v>12</v>
@@ -2090,7 +2235,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="21" t="s">
         <v>13</v>
@@ -2099,7 +2244,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>26</v>
       </c>
@@ -2109,7 +2254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="22" t="s">
         <v>113</v>
@@ -2118,7 +2263,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="23" t="s">
         <v>64</v>
@@ -2130,7 +2275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="21" t="s">
         <v>3</v>
@@ -2139,7 +2284,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="21" t="s">
         <v>4</v>
@@ -2148,7 +2293,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="21" t="s">
         <v>98</v>
@@ -2157,7 +2302,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="30" t="s">
         <v>29</v>
@@ -2169,7 +2314,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="30" t="s">
         <v>14</v>
@@ -2181,7 +2326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="21" t="s">
         <v>31</v>
@@ -2193,7 +2338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="23" t="s">
         <v>92</v>
@@ -2205,7 +2350,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="21" t="s">
         <v>56</v>
@@ -2217,7 +2362,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="21" t="s">
         <v>57</v>
@@ -2229,7 +2374,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="21" t="s">
         <v>58</v>
@@ -2241,7 +2386,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="21" t="s">
         <v>59</v>
@@ -2253,7 +2398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="23" t="s">
         <v>83</v>
@@ -2265,7 +2410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="24" t="s">
         <v>33</v>
@@ -2277,7 +2422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="21" t="s">
         <v>32</v>
@@ -2289,7 +2434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="21" t="s">
         <v>28</v>
@@ -2304,7 +2449,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="21" t="s">
         <v>30</v>
@@ -2316,7 +2461,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="21" t="s">
         <v>5</v>
@@ -2328,7 +2473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="25" t="s">
         <v>45</v>
@@ -2338,7 +2483,7 @@
       </c>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="25" t="s">
         <v>46</v>
@@ -2348,7 +2493,7 @@
       </c>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="25" t="s">
         <v>47</v>
@@ -2361,7 +2506,7 @@
       </c>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="21" t="s">
         <v>10</v>
@@ -2370,7 +2515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="21" t="s">
         <v>11</v>
@@ -2379,7 +2524,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="21" t="s">
         <v>12</v>
@@ -2388,7 +2533,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="21" t="s">
         <v>13</v>
@@ -2397,37 +2542,37 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
     </row>
-    <row r="50" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="21" t="s">
         <v>14</v>
@@ -2439,7 +2584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:6" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
@@ -2452,7 +2597,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="21" t="s">
         <v>29</v>
@@ -2467,10 +2612,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
         <v>83</v>
       </c>
@@ -2484,10 +2629,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
         <v>101</v>
       </c>
@@ -2501,7 +2646,7 @@
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
     </row>
-    <row r="58" spans="1:6" ht="12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="21" t="s">
         <v>53</v>
@@ -2513,7 +2658,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="21" t="s">
         <v>44</v>
@@ -2522,12 +2667,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
         <v>39</v>
       </c>
@@ -2539,14 +2684,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="22"/>
     </row>
-    <row r="63" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="21" t="s">
         <v>80</v>
@@ -2556,35 +2701,35 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="21"/>
     </row>
-    <row r="65" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C65" s="21"/>
     </row>
-    <row r="66" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="28"/>
     </row>
-    <row r="67" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C67" s="21"/>
     </row>
-    <row r="68" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="21" t="s">
         <v>43</v>
@@ -2594,70 +2739,70 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C69" s="21"/>
     </row>
-    <row r="70" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C70" s="21"/>
     </row>
-    <row r="71" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="21"/>
     </row>
-    <row r="72" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="21"/>
     </row>
-    <row r="73" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C73" s="21"/>
     </row>
-    <row r="74" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C74" s="21"/>
     </row>
-    <row r="75" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C75" s="21"/>
     </row>
-    <row r="76" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C76" s="21"/>
     </row>
-    <row r="77" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C77" s="21"/>
     </row>
-    <row r="78" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="21" t="s">
         <v>47</v>
@@ -2667,7 +2812,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="21" t="s">
         <v>62</v>
@@ -2676,7 +2821,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="30" t="s">
         <v>29</v>
@@ -2685,81 +2830,81 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
     </row>
-    <row r="83" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C83" s="22"/>
     </row>
-    <row r="84" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C84" s="21"/>
     </row>
-    <row r="85" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B85" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C85" s="21"/>
     </row>
-    <row r="86" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B86" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C86" s="21"/>
     </row>
-    <row r="87" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B87" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C87" s="21"/>
     </row>
-    <row r="88" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B88" s="21" t="s">
         <v>78</v>
       </c>
       <c r="C88" s="21"/>
     </row>
-    <row r="89" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B89" s="21" t="s">
         <v>79</v>
       </c>
       <c r="C89" s="21"/>
     </row>
-    <row r="90" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C90" s="21"/>
     </row>
-    <row r="91" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C91" s="21"/>
     </row>
-    <row r="92" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C92" s="21"/>
     </row>
-    <row r="93" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B93" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="21"/>
     </row>
-    <row r="95" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="26" t="s">
         <v>60</v>
       </c>
@@ -2770,18 +2915,18 @@
       <c r="F95" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G95" s="36" t="s">
+      <c r="G95" s="46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C96" s="22"/>
-      <c r="G96" s="36"/>
-    </row>
-    <row r="97" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+      <c r="G96" s="46"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B97" s="21" t="s">
         <v>67</v>
       </c>
@@ -2789,12 +2934,12 @@
       <c r="D97" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G97" s="36"/>
-    </row>
-    <row r="98" spans="1:7" ht="12" x14ac:dyDescent="0.2">
-      <c r="G98" s="36"/>
-    </row>
-    <row r="99" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+      <c r="G97" s="46"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="46"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="26" t="s">
         <v>61</v>
       </c>
@@ -2805,16 +2950,16 @@
       <c r="F99" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G99" s="36"/>
-    </row>
-    <row r="100" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+      <c r="G99" s="46"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B100" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C100" s="22"/>
-      <c r="G100" s="36"/>
-    </row>
-    <row r="101" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+      <c r="G100" s="46"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B101" s="21" t="s">
         <v>68</v>
       </c>
@@ -2822,15 +2967,15 @@
       <c r="D101" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="36"/>
-    </row>
-    <row r="102" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+      <c r="G101" s="46"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F102" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="36"/>
-    </row>
-    <row r="103" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+      <c r="G102" s="46"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -2839,7 +2984,7 @@
       </c>
       <c r="C103" s="27"/>
     </row>
-    <row r="104" spans="1:7" ht="12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B104" s="22" t="s">
         <v>66</v>
       </c>

--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177012\Documents\BC Parks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\BCP-CMS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{003AE97F-B474-4854-A4B4-6C59A1948941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DC0B95-9021-445E-90BC-E0F067095CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="BCParks" sheetId="1" r:id="rId1"/>
-    <sheet name="BCParks - old" sheetId="3" r:id="rId2"/>
-    <sheet name="BCGNIS" sheetId="2" r:id="rId3"/>
+    <sheet name="DataCatalogue" sheetId="4" r:id="rId2"/>
+    <sheet name="Datasets" sheetId="5" r:id="rId3"/>
+    <sheet name="BCGNIS" sheetId="2" r:id="rId4"/>
+    <sheet name="BCParks - old" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="350">
   <si>
     <t>Table</t>
   </si>
@@ -385,18 +387,12 @@
     <t>Moved to Links[]</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Link to AdvisoryStatus</t>
   </si>
   <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>x - deleted field</t>
-  </si>
-  <si>
     <t>Public Advisory History</t>
   </si>
   <si>
@@ -436,15 +432,6 @@
     <t>removed spaces to match standard field name format</t>
   </si>
   <si>
-    <t>changed to upper-case U for consistency</t>
-  </si>
-  <si>
-    <t>Start date of the event</t>
-  </si>
-  <si>
-    <t>Also referred to as 'PostDate'; used to schedule the start date and to display the date the advisory was posted; this is not necessarily the date the record was created and is not necessarily the event start date.</t>
-  </si>
-  <si>
     <t>Regions[]</t>
   </si>
   <si>
@@ -461,13 +448,1310 @@
   </si>
   <si>
     <t>Used to apply the advisory to management area(s)</t>
+  </si>
+  <si>
+    <t>DisplayAdvisoryDate</t>
+  </si>
+  <si>
+    <t>Used to enable/disable the display of the AdvisoryDate</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Approval Requested</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Advisory is expired and has been removed from public display, but the record is not deleted.</t>
+  </si>
+  <si>
+    <t>Advisory saved as a draft by the user and is still in progress; not ready to submit for approval. Other staff may access it and collaborate on the content.</t>
+  </si>
+  <si>
+    <t>Draft has been saved and submitted to the web team for approval.  Approvers could also be select management staff in case of emergency situations.</t>
+  </si>
+  <si>
+    <t>Advisory approved to be published, but the publish action may or may not need to be scheduled for a specific date and time.  The preset PostedDate (AdvisoryDate) will control the date and time that it will be published.</t>
+  </si>
+  <si>
+    <t>Also referred to as 'PostDate'; used to schedule the publish date and to display the date the advisory was posted; this is not necessarily the date the record was created and is not necessarily the event start date</t>
+  </si>
+  <si>
+    <t>Start date of the event, also referred to as 'StartDate'</t>
+  </si>
+  <si>
+    <t>DisplayEndDate</t>
+  </si>
+  <si>
+    <t>Used to enable/disable the display of the EndDate</t>
+  </si>
+  <si>
+    <t>DisplayEffectiveDate</t>
+  </si>
+  <si>
+    <t>Used to enable/disable the display of the EffectiveDate (StartDate)</t>
+  </si>
+  <si>
+    <t>DisplayUpdatedDate</t>
+  </si>
+  <si>
+    <t>Used to enable/disable the display of the UpdatedDate</t>
+  </si>
+  <si>
+    <t>Indicates that the site record is a custom entry that does not exist in PAR</t>
+  </si>
+  <si>
+    <t>Administrative note, likely used to explain the purpose of the custom site entry</t>
+  </si>
+  <si>
+    <t>Advisory has been published and is publicly accessible via API.</t>
+  </si>
+  <si>
+    <t>FireCentre</t>
+  </si>
+  <si>
+    <t>FireCentreNumber</t>
+  </si>
+  <si>
+    <t>FireCentreName</t>
+  </si>
+  <si>
+    <t>FireZone</t>
+  </si>
+  <si>
+    <t>FireZoneNumber</t>
+  </si>
+  <si>
+    <t>FireZoneName</t>
+  </si>
+  <si>
+    <t>FireZones[]</t>
+  </si>
+  <si>
+    <t>HeadquartersCityName</t>
+  </si>
+  <si>
+    <t>Layer Display Name</t>
+  </si>
+  <si>
+    <t>Data Catalogue URL</t>
+  </si>
+  <si>
+    <t>Layer Reference</t>
+  </si>
+  <si>
+    <t>BC Parks, Ecological Reserves, and Protected Areas</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_TANTALIS.TA_PARK_ECORES_PA_SVW/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/bc-parks-ecological-reserves-and-protected-areas</t>
+  </si>
+  <si>
+    <t>WHSE_TANTALIS.TA_PARK_ECORES_PA_SVW</t>
+  </si>
+  <si>
+    <t>TANTALIS - Conservancy Areas</t>
+  </si>
+  <si>
+    <t>BC Parks Conservancy Areas</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_TANTALIS.TA_CONSERVANCY_AREAS_SVW/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/tantalis-conservancy-areas</t>
+  </si>
+  <si>
+    <t>WHSE_TANTALIS.TA_CONSERVANCY_AREAS_SVW</t>
+  </si>
+  <si>
+    <t>Parks and Protected Areas Regional Boundaries</t>
+  </si>
+  <si>
+    <t>BC Parks Regional Boundaries</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_ADMIN_BOUNDARIES.ADM_BC_PARKS_REGIONS_SP/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/parks-and-protected-areas-regional-boundaries</t>
+  </si>
+  <si>
+    <t>WHSE_ADMIN_BOUNDARIES.ADM_BC_PARKS_REGIONS_SP</t>
+  </si>
+  <si>
+    <t>Parks and Protected Areas Section Boundaries</t>
+  </si>
+  <si>
+    <t>BC Parks Section Boundaries</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_ADMIN_BOUNDARIES.ADM_BC_PARKS_SECTIONS_SP/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/parks-and-protected-areas-section-boundaries</t>
+  </si>
+  <si>
+    <t>WHSE_ADMIN_BOUNDARIES.ADM_BC_PARKS_SECTIONS_SP</t>
+  </si>
+  <si>
+    <t>Fire Centres</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_LEGAL_ADMIN_BOUNDARIES.DRP_MOF_FIRE_CENTRES_SP/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>WHSE_LEGAL_ADMIN_BOUNDARIES.DRP_MOF_FIRE_CENTRES_SP</t>
+  </si>
+  <si>
+    <t>Fire Zones</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_LEGAL_ADMIN_BOUNDARIES.DRP_MOF_FIRE_ZONES_SP/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>WHSE_LEGAL_ADMIN_BOUNDARIES.DRP_MOF_FIRE_ZONES_SP</t>
+  </si>
+  <si>
+    <t>Protected Lands Access Restrictions</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_PARKS.PA_PRTCTD_LND_RSTRCTNS_SV/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/protected-lands-access-restrictions</t>
+  </si>
+  <si>
+    <t>WHSE_PARKS.PA_PRTCTD_LND_RSTRCTNS_SV</t>
+  </si>
+  <si>
+    <t>Protected Lands Facilities</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_PARKS.PA_PRTCTD_LND_FACILITIES_SP/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/protected-lands-facilities</t>
+  </si>
+  <si>
+    <t>WHSE_PARKS.PA_PRTCTD_LND_FACILITIES_SP</t>
+  </si>
+  <si>
+    <t>This is not yet used</t>
+  </si>
+  <si>
+    <t>Emergency Management BC Boundaries</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_LEGAL_ADMIN_BOUNDARIES.DRP_PEP_REGIONS_SP/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/emergency-management-bc-boundaries</t>
+  </si>
+  <si>
+    <t>WHSE_LEGAL_ADMIN_BOUNDARIES.DRP_PEP_REGIONS_SP</t>
+  </si>
+  <si>
+    <t>Natural Resource (NR) Areas</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_ADMIN_BOUNDARIES.ADM_NR_AREAS_SPG/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/natural-resource-nr-areas</t>
+  </si>
+  <si>
+    <t>WHSE_ADMIN_BOUNDARIES.ADM_NR_AREAS_SPG</t>
+  </si>
+  <si>
+    <t>Natural Resource (NR) Regions</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_ADMIN_BOUNDARIES.ADM_NR_REGIONS_SPG/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/natural-resource-nr-regions</t>
+  </si>
+  <si>
+    <t>WHSE_ADMIN_BOUNDARIES.ADM_NR_REGIONS_SPG</t>
+  </si>
+  <si>
+    <t>Natural Resource (NR) Districts</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_ADMIN_BOUNDARIES.ADM_NR_DISTRICTS_SPG/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/natural-resource-nr-district</t>
+  </si>
+  <si>
+    <t>WHSE_ADMIN_BOUNDARIES.ADM_NR_DISTRICTS_SPG</t>
+  </si>
+  <si>
+    <t>BC Tourism Regions</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_LEGAL_ADMIN_BOUNDARIES.ADM_TOURISM_REGIONS_SP/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/bc-tourism-regions</t>
+  </si>
+  <si>
+    <t>WHSE_LEGAL_ADMIN_BOUNDARIES.ADM_TOURISM_REGIONS_SP</t>
+  </si>
+  <si>
+    <t>Regional Districts - Legally Defined Administrative Areas of BC</t>
+  </si>
+  <si>
+    <t>BC Regional Districts</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_LEGAL_ADMIN_BOUNDARIES.ABMS_REGIONAL_DISTRICTS_SP/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/regional-districts-legally-defined-administrative-areas-of-bc</t>
+  </si>
+  <si>
+    <t>WHSE_LEGAL_ADMIN_BOUNDARIES.ABMS_REGIONAL_DISTRICTS_SP</t>
+  </si>
+  <si>
+    <t>ENV Regional Boundaries</t>
+  </si>
+  <si>
+    <t>Environment Regional Boundaries</t>
+  </si>
+  <si>
+    <t>https://openmaps.gov.bc.ca/geo/pub/WHSE_ADMIN_BOUNDARIES.EADM_WLAP_REGION_BND_AREA_SVW/ows?service=WMS&amp;request=GetCapabilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/env-regional-boundaries</t>
+  </si>
+  <si>
+    <t>WHSE_ADMIN_BOUNDARIES.EADM_WLAP_REGION_BND_AREA_SVW</t>
+  </si>
+  <si>
+    <t>BCGW</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>Dataset Name</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/bc-wildfire-fire-centres</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/bc-wildfire-fire-zones</t>
+  </si>
+  <si>
+    <t>FogZone</t>
+  </si>
+  <si>
+    <t>Indicates whether or not the park area overlaps the fog zone, which is along the west coast of Vancouver Island. This is used to indicate campfire ban exceptions.</t>
+  </si>
+  <si>
+    <t>BC Wildfire Fire Centres</t>
+  </si>
+  <si>
+    <t>BC Wildfire Fire Zones; subsections of Fire Centres</t>
+  </si>
+  <si>
+    <t>British Columbia Wildfire Bans and Prohibitions</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/british-columbia-wildfire-bans-and-prohibitions</t>
+  </si>
+  <si>
+    <t>Wildfire Bans and Prohibitions</t>
+  </si>
+  <si>
+    <t>Reference this to determine campfire ban status for parks.</t>
+  </si>
+  <si>
+    <t>http://bcfireinfo.for.gov.bc.ca/hprScripts/WildfireNews/Bans.asp</t>
+  </si>
+  <si>
+    <t>More Information</t>
+  </si>
+  <si>
+    <t>https://catalogue.data.gov.bc.ca/dataset/bc-wildfire-area-restrictions</t>
+  </si>
+  <si>
+    <t>BC Wildfire Area Restrictions</t>
+  </si>
+  <si>
+    <t>Use on the BC Parks Map to indicate possible affect on park access</t>
+  </si>
+  <si>
+    <t>Wildfire Area Restrictions</t>
+  </si>
+  <si>
+    <t>LicencePlateProjects</t>
+  </si>
+  <si>
+    <t>integrate with ProtectedArea?</t>
+  </si>
+  <si>
+    <t>Campgrounds</t>
+  </si>
+  <si>
+    <t>DayUsePass</t>
+  </si>
+  <si>
+    <t>Indicates whether or not day-use passes are required for this park</t>
+  </si>
+  <si>
+    <t>ParkFireCentreXRef</t>
+  </si>
+  <si>
+    <t>ParkFireZoneXRef</t>
+  </si>
+  <si>
+    <t>not sure if this one is necessary</t>
+  </si>
+  <si>
+    <t>Data Catalogue Record</t>
+  </si>
+  <si>
+    <t>WMS getCapabilities Request URL</t>
+  </si>
+  <si>
+    <t>ParkFogZoneXRef</t>
+  </si>
+  <si>
+    <t>Not sure if this reference method is best</t>
+  </si>
+  <si>
+    <t>Park boundaries can overlap fire zone boundaries; association with multiple fire zones is possible</t>
+  </si>
+  <si>
+    <t>VolunteerPartners</t>
+  </si>
+  <si>
+    <t>ManagementPlanning</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>FacilityNumber</t>
+  </si>
+  <si>
+    <t>FacilityName</t>
+  </si>
+  <si>
+    <t>ActivityNumber</t>
+  </si>
+  <si>
+    <t>ActivityName</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>5-10 staff to participate in short testing and development focus and test groups</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Location</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maps (park, sites, trails, infrastruture).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activities/experiences (trails, beach, picnic, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Natural, cultural, or historical features</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Infrastructure (parking, toilets, water, amphitheatre, pump tracks, first aid, electrical, storage, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cell and internet coverage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accessibility</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Services (rentals, tours, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calendar of events</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Safety</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Park photos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Park narrative</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Openings/closures (park)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Openings/closures (trails, beaches etc.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wildlife alerts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hazards</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Health and safety</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Events</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Facility availability (campsites, parking, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Links to day use permit booking system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Links to camping booking system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Links to backcountry permit booking system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Responsible use messaging</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jerry’s Rangers materials and activities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nature, culture, or history</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Links from BC Parks website and Discover Camping</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Social media</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Posters in parks and on materials</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BC Parks will provide information and, where appropriate, introductions relevant to third party partners such as Park Operators, First Nations, NGOs, concessionaires and permit holders.</t>
+    </r>
+  </si>
+  <si>
+    <t>Migrated</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>need to append more data that is not contained in PAR</t>
+  </si>
+  <si>
+    <t>Sites</t>
+  </si>
+  <si>
+    <t>ParkContacts</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ParkOperatingDates</t>
+  </si>
+  <si>
+    <t>ParkAttendance</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N?</t>
+  </si>
+  <si>
+    <t>Create a record for this in BCGW</t>
+  </si>
+  <si>
+    <t>Protected Lands</t>
+  </si>
+  <si>
+    <t>Management Areas</t>
+  </si>
+  <si>
+    <t>BC Parks Names</t>
+  </si>
+  <si>
+    <t>Park Details</t>
+  </si>
+  <si>
+    <t>BCGNIS Park Names</t>
+  </si>
+  <si>
+    <t>Park Fees</t>
+  </si>
+  <si>
+    <t>BCPF: Needed from BC Parks</t>
+  </si>
+  <si>
+    <t>ParkActivityXRef</t>
+  </si>
+  <si>
+    <t>ParkFacilityXRef</t>
+  </si>
+  <si>
+    <t>draw the majority of this from AMS API, which is a detailed inventory of individual facilities; we will need to summarize for the park page</t>
+  </si>
+  <si>
+    <t>IconNA</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Path to 'activity available' icon</t>
+  </si>
+  <si>
+    <t>Path to 'activity not available' icon</t>
+  </si>
+  <si>
+    <t>ActivityCode</t>
+  </si>
+  <si>
+    <t>Condensed alpha-only version of the name, currently used to set html element IDs for local page links and element expansion</t>
+  </si>
+  <si>
+    <t>Indicates whether or not the activity type is in use and should be displayed as an option</t>
+  </si>
+  <si>
+    <t>Indicates whether or not the facility type is in use and should be displayed as an option</t>
+  </si>
+  <si>
+    <t>Used to control the sort order of activities</t>
+  </si>
+  <si>
+    <t>FacilityCode</t>
+  </si>
+  <si>
+    <t>Path to 'facility available' icon</t>
+  </si>
+  <si>
+    <t>Path to 'facility not available' icon</t>
+  </si>
+  <si>
+    <t>Used to control the sort order of facilities</t>
+  </si>
+  <si>
+    <t>AssetType</t>
+  </si>
+  <si>
+    <t>AssetTypeNumber</t>
+  </si>
+  <si>
+    <t>AssetCategory</t>
+  </si>
+  <si>
+    <t>Asset Type classification used in the Asset Management System (AMS)</t>
+  </si>
+  <si>
+    <t>Asset Category classification used in the Asset Management System (AMS); parent to Asset Type</t>
+  </si>
+  <si>
+    <t>Link to AssetType</t>
+  </si>
+  <si>
+    <t>Reference to the AMS AssetType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,12 +1819,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
+      <u/>
       <sz val="9"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -611,7 +1932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -678,73 +1999,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{0B88CCB0-18A3-4823-A563-90BC155E472B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1056,26 +2490,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9256A4-85B0-483D-ABA5-01E16592AE65}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="59.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="22.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="4"/>
+    <col min="7" max="7" width="56.83203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -1097,995 +2531,2194 @@
       <c r="G1" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="D8" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
       <c r="B9" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="D9" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="21" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>97</v>
       </c>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>97</v>
+      <c r="B17" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>97</v>
+      <c r="B18" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>94</v>
+      <c r="B19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>65</v>
+      <c r="B20" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="G20" s="32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="B21" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>93</v>
-      </c>
+      <c r="B22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>116</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="21" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>57</v>
+      <c r="A24" s="5"/>
+      <c r="B24" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>115</v>
+      <c r="A25" s="5"/>
+      <c r="B25" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>115</v>
+      <c r="A26" s="5"/>
+      <c r="B26" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>84</v>
+      <c r="B27" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>34</v>
+      <c r="B28" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>35</v>
+        <v>95</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>88</v>
+      <c r="B30" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B31" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="21"/>
       <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B32" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="21"/>
       <c r="G32" s="32"/>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="25" t="s">
-        <v>45</v>
+      <c r="B33" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>114</v>
       </c>
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="25" t="s">
-        <v>46</v>
+      <c r="B34" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="32"/>
+        <v>96</v>
+      </c>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="25" t="s">
-        <v>47</v>
+      <c r="B35" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="32"/>
+        <v>97</v>
+      </c>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
       <c r="B37" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>97</v>
       </c>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="21" t="s">
+    </row>
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A46" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="D47" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="37"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="E50" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="37"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="21" t="s">
+      <c r="D57" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-    </row>
-    <row r="55" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="21" t="s">
+    <row r="61" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="21" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="27" t="s">
+      <c r="D63" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="26" t="s">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="4" t="s">
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="4" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22"/>
-    </row>
-    <row r="66" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="21"/>
+      <c r="B67" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="22"/>
     </row>
     <row r="68" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="21" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C68" s="21"/>
+      <c r="D68" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="69" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="28"/>
-      <c r="G69" s="19" t="s">
-        <v>133</v>
-      </c>
+      <c r="B69" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="21"/>
     </row>
     <row r="70" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" s="21"/>
     </row>
     <row r="71" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="B71" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="G71" s="32"/>
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C72" s="21"/>
     </row>
     <row r="73" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C73" s="21"/>
+      <c r="D73" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="74" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="21"/>
+      <c r="B74" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74" s="53" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="75" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="21" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C75" s="21"/>
     </row>
     <row r="76" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="21" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C76" s="21"/>
     </row>
     <row r="77" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="21" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C77" s="21"/>
     </row>
     <row r="78" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C78" s="21"/>
     </row>
     <row r="79" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C79" s="21"/>
     </row>
     <row r="80" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="21" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C80" s="21"/>
     </row>
     <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C81" s="21"/>
-      <c r="D81" s="35" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="21"/>
+    </row>
+    <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="B84" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C85" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="30" t="s">
+    <row r="86" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9"/>
+      <c r="B88" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C88" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="26" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="42" t="s">
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="4"/>
+      <c r="B92" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="G86" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" s="21"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="24" t="s">
+      <c r="C92" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="21"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="21"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" s="21"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C91" s="21"/>
-      <c r="G91" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" s="21"/>
-      <c r="G92" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C93" s="21"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C94" s="21"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" s="21"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="21"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B98" s="19" t="s">
+      <c r="C101" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" s="44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C102" s="30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="27"/>
-      <c r="F100" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G100" s="46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B101" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C101" s="22"/>
-      <c r="G101" s="46"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B102" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="21"/>
-      <c r="D102" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G102" s="46"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G103" s="46"/>
+      <c r="D102" s="44" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C104" s="27"/>
+        <v>112</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>95</v>
+      </c>
       <c r="F104" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G104" s="46"/>
+      <c r="G104" s="60" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B105" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C105" s="22"/>
-      <c r="G105" s="46"/>
+        <v>121</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G105" s="60"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C106" s="21"/>
       <c r="D106" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G106" s="46"/>
+        <v>72</v>
+      </c>
+      <c r="G106" s="60"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F107" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G107" s="46"/>
+      <c r="G107" s="60"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" s="27"/>
+        <v>111</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G108" s="60"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B109" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C109" s="22"/>
+        <v>122</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G109" s="60"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" s="21"/>
+      <c r="D110" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G110" s="60"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F111" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G111" s="60"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H115" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" s="21"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H119" s="58" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C123" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B124" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B125" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B126" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" s="48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" s="48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D138" s="48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B143" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C143" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B144" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C144" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>347</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G100:G107"/>
+    <mergeCell ref="G104:G111"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H115" r:id="rId1" xr:uid="{C542003A-DE46-4D98-A11B-9CC195E7F11A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171C08A0-AF00-4BB5-82D1-824633A7E054}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D17" r:id="rId1" xr:uid="{F1535CA5-FED5-4987-AFF5-0D4FF1813E5A}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{6B885E05-3FFA-403D-870B-0F1880316E45}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{8522FD56-F6F3-472F-B428-D9116BB0B073}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{FDE51DB0-BE3E-47D9-A26D-D6DE9B4912F6}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{1F930894-9A84-4455-902B-339A973EA021}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{91FA6640-3495-42D2-86ED-A382BB0B8B07}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{68641987-56C1-4CD4-B754-BA867FDFC02C}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{2C0BDE24-1C77-420D-A50A-51EC3A357F0E}"/>
+    <hyperlink ref="D18" r:id="rId9" xr:uid="{724F0ACC-D6E6-4F14-A902-16823B214B6C}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{D3F18D35-E48A-4BE8-9517-BC7B4C156D33}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{8AD3BD51-9926-4A6C-AB86-778193A171D6}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{B7FADF48-BE59-4185-936C-170A112108BC}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{68C92683-9104-4846-ACB0-2C30A0DC646F}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{0AD74F1C-479E-4610-A952-DB583AD06D1D}"/>
+    <hyperlink ref="B6" r:id="rId15" xr:uid="{04AE96E0-2A71-47E3-B9CF-3B781421C5A5}"/>
+    <hyperlink ref="B4" r:id="rId16" xr:uid="{6FC94149-11CD-4460-9899-7737271E0CAB}"/>
+    <hyperlink ref="B5" r:id="rId17" xr:uid="{D6C22A79-A0D7-46B0-96EB-2CCAFED3254D}"/>
+    <hyperlink ref="B12" r:id="rId18" xr:uid="{92981390-F9DB-4B3E-8F49-BA28333788D8}"/>
+    <hyperlink ref="B15" r:id="rId19" xr:uid="{25FE8EDF-4861-497E-9DAA-D4353A237380}"/>
+    <hyperlink ref="B16" r:id="rId20" xr:uid="{EFA23A56-88FD-4540-AA12-6F1CFAD9723F}"/>
+    <hyperlink ref="D16" r:id="rId21" xr:uid="{F8B55FCA-7F82-477E-AF79-7B19336DFE86}"/>
+    <hyperlink ref="B2" r:id="rId22" xr:uid="{6FE19610-58B4-48D8-BED7-41FBCB76D58F}"/>
+    <hyperlink ref="B3" r:id="rId23" xr:uid="{41DE1A15-E9AE-4DFC-842B-2D753AA2C4ED}"/>
+    <hyperlink ref="B17" r:id="rId24" xr:uid="{AA36631E-4E53-43DC-9855-E27FC2CC07DD}"/>
+    <hyperlink ref="B18" r:id="rId25" xr:uid="{B782DF9B-659E-4BD0-824B-0DB4125E2DB6}"/>
+    <hyperlink ref="B10" r:id="rId26" xr:uid="{11339830-CD8A-4BE4-B8AB-6AB85EC22571}"/>
+    <hyperlink ref="D10" r:id="rId27" xr:uid="{C865944A-F024-471E-B258-ECBE758EFDB2}"/>
+    <hyperlink ref="B11" r:id="rId28" xr:uid="{C4AD4FC0-B258-4BDE-B189-DCDF80E94F1E}"/>
+    <hyperlink ref="D11" r:id="rId29" xr:uid="{1C6CF777-5B13-4BD3-A2BB-D27CC6AB09DE}"/>
+    <hyperlink ref="B8" r:id="rId30" xr:uid="{1CB2EC76-E679-47F0-B6BA-E7E34718D1BC}"/>
+    <hyperlink ref="G8" r:id="rId31" xr:uid="{1451B9F1-A0CE-4796-A76F-4E624E0228FE}"/>
+    <hyperlink ref="B9" r:id="rId32" xr:uid="{93F08A46-02D3-402D-8664-C986F130162E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId33"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8188FD92-A7C9-4AC5-9D59-53B6660F6045}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" style="72" customWidth="1"/>
+    <col min="2" max="3" width="9" style="59" customWidth="1"/>
+    <col min="4" max="4" width="52.83203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.33203125" style="4"/>
+    <col min="9" max="9" width="137.33203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="I4" s="63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="I5" s="63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="I6" s="63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="68"/>
+      <c r="I7" s="63" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="73" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="68"/>
+      <c r="I8" s="63" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A9" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="68"/>
+      <c r="I10" s="63" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="68"/>
+      <c r="I11" s="63" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="68"/>
+      <c r="I12" s="63" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="68"/>
+      <c r="I14" s="63" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="68"/>
+      <c r="I15" s="63" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="I17" s="63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="70"/>
+      <c r="C18" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="I18" s="63" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="70"/>
+      <c r="C19" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="I19" s="63" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="70"/>
+      <c r="C21" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="I21" s="63" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="70"/>
+      <c r="C22" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="I22" s="63" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="68"/>
+      <c r="I23" s="64" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="I24" s="63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" s="68"/>
+      <c r="I25" s="63" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="I26" s="64" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I27" s="63" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I28" s="63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I30" s="63" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I31" s="63" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="64" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7ED20A-5A3A-453C-8A81-923C8953B4C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66662F61-F679-43AD-99EF-C80D953E466D}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="59.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="22.1640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="19.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="4"/>
+    <col min="7" max="7" width="76.5" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2915,7 +5548,7 @@
       <c r="F95" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G95" s="46" t="s">
+      <c r="G95" s="60" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2924,7 +5557,7 @@
         <v>66</v>
       </c>
       <c r="C96" s="22"/>
-      <c r="G96" s="46"/>
+      <c r="G96" s="60"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B97" s="21" t="s">
@@ -2934,10 +5567,10 @@
       <c r="D97" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G97" s="46"/>
+      <c r="G97" s="60"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G98" s="46"/>
+      <c r="G98" s="60"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="26" t="s">
@@ -2950,14 +5583,14 @@
       <c r="F99" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G99" s="46"/>
+      <c r="G99" s="60"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B100" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C100" s="22"/>
-      <c r="G100" s="46"/>
+      <c r="G100" s="60"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B101" s="21" t="s">
@@ -2967,13 +5600,13 @@
       <c r="D101" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="46"/>
+      <c r="G101" s="60"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F102" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="46"/>
+      <c r="G102" s="60"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="26" t="s">
@@ -2996,16 +5629,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7ED20A-5A3A-453C-8A81-923C8953B4C9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\BCP-CMS\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\__work\BC Parks\Data Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DC0B95-9021-445E-90BC-E0F067095CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA09CA1A-F127-4D4C-9E4B-F042A4E13F9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="BCParks" sheetId="1" r:id="rId1"/>
-    <sheet name="DataCatalogue" sheetId="4" r:id="rId2"/>
-    <sheet name="Datasets" sheetId="5" r:id="rId3"/>
+    <sheet name="Datasets" sheetId="5" r:id="rId2"/>
+    <sheet name="DataCatalogue" sheetId="4" r:id="rId3"/>
     <sheet name="BCGNIS" sheetId="2" r:id="rId4"/>
     <sheet name="BCParks - old" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="374">
   <si>
     <t>Table</t>
   </si>
@@ -739,12 +739,6 @@
   </si>
   <si>
     <t>BCGW</t>
-  </si>
-  <si>
-    <t>Regions</t>
-  </si>
-  <si>
-    <t>Sections</t>
   </si>
   <si>
     <t>Dataset Name</t>
@@ -1626,9 +1620,6 @@
     <t>need to append more data that is not contained in PAR</t>
   </si>
   <si>
-    <t>Sites</t>
-  </si>
-  <si>
     <t>ParkContacts</t>
   </si>
   <si>
@@ -1650,24 +1641,6 @@
     <t>Create a record for this in BCGW</t>
   </si>
   <si>
-    <t>Protected Lands</t>
-  </si>
-  <si>
-    <t>Management Areas</t>
-  </si>
-  <si>
-    <t>BC Parks Names</t>
-  </si>
-  <si>
-    <t>Park Details</t>
-  </si>
-  <si>
-    <t>BCGNIS Park Names</t>
-  </si>
-  <si>
-    <t>Park Fees</t>
-  </si>
-  <si>
     <t>BCPF: Needed from BC Parks</t>
   </si>
   <si>
@@ -1738,6 +1711,105 @@
   </si>
   <si>
     <t>Reference to the AMS AssetType</t>
+  </si>
+  <si>
+    <t>BCPF</t>
+  </si>
+  <si>
+    <t>PublicAdvisory</t>
+  </si>
+  <si>
+    <t>ProtectedArea</t>
+  </si>
+  <si>
+    <t>BCParksLegalName</t>
+  </si>
+  <si>
+    <t>BCGNISParkNames</t>
+  </si>
+  <si>
+    <t>ParkDetails</t>
+  </si>
+  <si>
+    <t>ParkFees</t>
+  </si>
+  <si>
+    <t>Introduction, Location, Stay Safe etc.</t>
+  </si>
+  <si>
+    <t>Y?</t>
+  </si>
+  <si>
+    <t>ParkPhotos</t>
+  </si>
+  <si>
+    <t>Currently served on bcparks.ca as json; will eventually reference ResourceSpace API</t>
+  </si>
+  <si>
+    <t>EventCalendar</t>
+  </si>
+  <si>
+    <t>MapsBrochures</t>
+  </si>
+  <si>
+    <t>Related Dataset</t>
+  </si>
+  <si>
+    <t>OperatingDatesPark</t>
+  </si>
+  <si>
+    <t>OperatingDatesSubArea</t>
+  </si>
+  <si>
+    <t>SubAreaType</t>
+  </si>
+  <si>
+    <t>Will need to migrate the latest data when ready to switch</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>EventCalendarPark</t>
+  </si>
+  <si>
+    <t>DCFacilities</t>
+  </si>
+  <si>
+    <t>Discover Camping facilities</t>
+  </si>
+  <si>
+    <t>DCPlaces</t>
+  </si>
+  <si>
+    <t>Discover Camping parks</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>UserRoles</t>
+  </si>
+  <si>
+    <t>UserNumber</t>
+  </si>
+  <si>
+    <t>guessing at this</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>UserIDIR</t>
+  </si>
+  <si>
+    <t>ExchangeID</t>
+  </si>
+  <si>
+    <t>ReservationsAffected</t>
+  </si>
+  <si>
+    <t>Indicates that Discover Camping reservations were affected by this event</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +2004,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2013,9 +2085,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -2051,6 +2121,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2058,7 +2141,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2131,12 +2214,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2145,6 +2222,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2164,6 +2244,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2172,6 +2255,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2490,11 +2594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9256A4-85B0-483D-ABA5-01E16592AE65}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2741,165 +2845,166 @@
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="G20" s="32" t="s">
-        <v>93</v>
+      <c r="B20" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="38" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="32"/>
+        <v>102</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="G21" s="32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>117</v>
+      <c r="B22" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>103</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="21" t="s">
-        <v>32</v>
+      <c r="B23" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>35</v>
+      <c r="D23" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="30" t="s">
-        <v>137</v>
+      <c r="B24" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>138</v>
+      <c r="D24" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>152</v>
+      <c r="D25" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>117</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>117</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>88</v>
+      <c r="B28" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>95</v>
+      <c r="B29" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="21" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>99</v>
@@ -2910,505 +3015,504 @@
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>114</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D33" s="21"/>
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="21" t="s">
-        <v>10</v>
+      <c r="B34" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="21"/>
+        <v>95</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="21" t="s">
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+    <row r="42" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17" t="s">
+    <row r="45" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+    <row r="47" spans="1:7" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="33" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21" t="s">
+    <row r="48" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D48" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E48" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="37"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
+    <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="37"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="32" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="E50" s="44" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="E51" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G50" s="44" t="s">
+      <c r="G51" s="44" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="D52" s="32"/>
       <c r="E52" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="D53" s="32"/>
       <c r="E53" s="44" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="D54" s="32"/>
       <c r="E54" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G55" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
+    <row r="57" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-    </row>
-    <row r="57" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+    </row>
+    <row r="58" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C58" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D58" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-    </row>
     <row r="59" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="6" t="s">
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="6" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
+      <c r="B61" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="62" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B63" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C63" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="21" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="D64" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="26" t="s">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="4" t="s">
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="22"/>
     </row>
     <row r="68" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B68" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="22"/>
     </row>
     <row r="69" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="21" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C69" s="21"/>
+      <c r="D69" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="70" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C70" s="21"/>
     </row>
     <row r="71" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="28"/>
-      <c r="G71" s="32"/>
+      <c r="B71" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="21"/>
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="21"/>
+      <c r="B72" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="G72" s="32"/>
     </row>
     <row r="73" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C73" s="21"/>
-      <c r="D73" s="6" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="74" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G74" s="53" t="s">
-        <v>266</v>
+      <c r="B74" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="21"/>
+      <c r="B75" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" s="53" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="76" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C76" s="21"/>
     </row>
     <row r="77" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C77" s="21"/>
     </row>
     <row r="78" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="21" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C78" s="21"/>
     </row>
     <row r="79" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C79" s="21"/>
     </row>
     <row r="80" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="21" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C80" s="21"/>
     </row>
     <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="21" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C81" s="21"/>
     </row>
     <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C82" s="21"/>
     </row>
     <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C83" s="21"/>
     </row>
     <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C84" s="21"/>
-      <c r="D84" s="32" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="85" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>108</v>
+        <v>47</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-      <c r="B86" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" s="21"/>
-      <c r="D86" s="51" t="s">
-        <v>267</v>
+      <c r="B86" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="C87" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="51" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5"/>
+      <c r="B88" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="53" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="30" t="s">
+      <c r="D88" s="53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9"/>
+      <c r="B89" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C89" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="26" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="42" t="s">
         <v>97</v>
       </c>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
+      <c r="G92" s="43" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="4"/>
       <c r="B93" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
@@ -3417,10 +3521,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B94" s="30" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
@@ -3429,21 +3533,19 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B95" s="30" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="43"/>
-      <c r="G95" s="43" t="s">
-        <v>130</v>
-      </c>
+      <c r="G95" s="43"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C96" s="30" t="s">
         <v>96</v>
@@ -3456,24 +3558,30 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>97</v>
+      <c r="B97" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B98" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C99" s="21" t="s">
         <v>99</v>
@@ -3481,422 +3589,491 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B100" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C101" s="21" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B101" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D101" s="44" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C103" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="44" t="s">
+      <c r="D103" s="44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="26" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B105" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C105" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G104" s="60" t="s">
+      <c r="G105" s="78" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="42" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C106" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G105" s="60"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B106" s="21" t="s">
+      <c r="G106" s="78"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C106" s="21"/>
-      <c r="D106" s="4" t="s">
+      <c r="C107" s="21"/>
+      <c r="D107" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G106" s="60"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G107" s="60"/>
+      <c r="G107" s="78"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="26" t="s">
+      <c r="G108" s="78"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B108" s="27" t="s">
+      <c r="B109" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C109" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F109" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G108" s="60"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B109" s="42" t="s">
+      <c r="G109" s="78"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C110" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G109" s="60"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="21" t="s">
+      <c r="G110" s="78"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="4" t="s">
+      <c r="C111" s="21"/>
+      <c r="D111" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G110" s="60"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F111" s="4" t="s">
+      <c r="G111" s="78"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F112" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G111" s="60"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="26" t="s">
+      <c r="G112" s="78"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B112" s="27" t="s">
+      <c r="B113" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="C113" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="42" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C114" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="26" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B115" s="27" t="s">
+      <c r="B116" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C115" s="27" t="s">
+      <c r="C116" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D115" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="F115" s="4" t="s">
+      <c r="D116" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H115" s="55" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="42" t="s">
+      <c r="H116" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C117" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="21" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C117" s="21"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="26" t="s">
+      <c r="C118" s="21"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B119" s="27" t="s">
+      <c r="B120" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C119" s="27" t="s">
+      <c r="C120" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D119" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="F119" s="4" t="s">
+      <c r="D120" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H119" s="58" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="42" t="s">
+      <c r="H120" s="58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="42" t="s">
         <v>163</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C123" s="27" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="27" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="42" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="C125" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>335</v>
-      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="21" t="s">
-        <v>276</v>
+      <c r="B126" s="42" t="s">
+        <v>325</v>
       </c>
       <c r="C126" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="C127" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="21" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D128" s="48" t="s">
-        <v>338</v>
+        <v>97</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B129" s="21" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>25</v>
+        <v>95</v>
+      </c>
+      <c r="D129" s="48" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B130" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C131" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="B132" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="C132" s="27" t="s">
+      <c r="D131" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C133" s="27" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B133" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B134" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="C134" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C134" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>335</v>
-      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B135" s="21" t="s">
-        <v>276</v>
+      <c r="B135" s="42" t="s">
+        <v>330</v>
       </c>
       <c r="C135" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B136" s="21" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="C136" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B137" s="21" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D137" s="48" t="s">
-        <v>342</v>
+        <v>97</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B138" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="C138" s="31" t="s">
-        <v>348</v>
+        <v>322</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D138" s="48" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B139" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>25</v>
+        <v>334</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D139" s="48" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B140" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B141" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C141" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="C142" s="27" t="s">
+      <c r="D141" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="C143" s="27" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B143" s="56" t="s">
-        <v>343</v>
-      </c>
-      <c r="C143" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B144" s="56" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C144" s="56" t="s">
         <v>97</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>347</v>
-      </c>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B145" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="C145" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B146" s="56"/>
+      <c r="C146" s="56"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="C148" s="27"/>
+      <c r="D148" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B149" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="C149" s="56"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B150" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="C150" s="56"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B151" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="C151" s="56"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B152" s="56"/>
+      <c r="C152" s="56"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B153" s="56"/>
+      <c r="C153" s="56"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B154" s="56"/>
+      <c r="C154" s="56"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B156" s="27"/>
+      <c r="C156" s="27"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B157" s="56"/>
+      <c r="C157" s="56"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B158" s="56"/>
+      <c r="C158" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G104:G111"/>
+    <mergeCell ref="G105:G112"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H115" r:id="rId1" xr:uid="{C542003A-DE46-4D98-A11B-9CC195E7F11A}"/>
+    <hyperlink ref="H116" r:id="rId1" xr:uid="{C542003A-DE46-4D98-A11B-9CC195E7F11A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId2"/>
@@ -3904,6 +4081,778 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8188FD92-A7C9-4AC5-9D59-53B6660F6045}">
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" style="72" customWidth="1"/>
+    <col min="2" max="4" width="9" style="59" customWidth="1"/>
+    <col min="5" max="5" width="52.83203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.33203125" style="4"/>
+    <col min="9" max="9" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="137.33203125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="I4" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="I5" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="I6" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="I8" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="I9" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="I10" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="I11" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="J12" s="61" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="I13" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="73" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="67"/>
+      <c r="I14" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A15" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="67"/>
+      <c r="I16" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J16" s="62" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="67"/>
+      <c r="I17" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="67"/>
+      <c r="I18" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="67"/>
+      <c r="I20" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="67"/>
+      <c r="J21" s="61" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="68" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="71"/>
+      <c r="I23" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="J23" s="62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="73" t="s">
+        <v>353</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="J25" s="61" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="J26" s="62" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="D27" s="69"/>
+      <c r="E27" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="J28" s="61" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="J29" s="62" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="J30" s="61" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="J31" s="61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="68" t="s">
+        <v>355</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="J32" s="62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="68" t="s">
+        <v>356</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="J33" s="62" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
+    </row>
+    <row r="38" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A38" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" s="65"/>
+      <c r="E40" s="63"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="63"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="63"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="63"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="76"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="59"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="76"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="59"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="76"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="59"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="76"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="59"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="76"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="59"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="76"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="59"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="76"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="59"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="76"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="59"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="76"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="59"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="76"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="59"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="76"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="59"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="76"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="59"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="76"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="59"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="76"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="59"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="76"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="59"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="59"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171C08A0-AF00-4BB5-82D1-824633A7E054}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -3925,7 +4874,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>167</v>
@@ -3934,7 +4883,7 @@
         <v>166</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>168</v>
@@ -3943,7 +4892,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4027,7 +4976,7 @@
         <v>188</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>188</v>
@@ -4046,7 +4995,7 @@
         <v>191</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>191</v>
@@ -4062,37 +5011,37 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>247</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="56" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>252</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>254</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G9" s="21"/>
     </row>
@@ -4309,387 +5258,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8188FD92-A7C9-4AC5-9D59-53B6660F6045}">
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.1640625" style="72" customWidth="1"/>
-    <col min="2" max="3" width="9" style="59" customWidth="1"/>
-    <col min="4" max="4" width="52.83203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.33203125" style="4"/>
-    <col min="9" max="9" width="137.33203125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.33203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="I4" s="63" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="I5" s="63" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="I6" s="63" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="68"/>
-      <c r="I7" s="63" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
-        <v>327</v>
-      </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="68"/>
-      <c r="I8" s="63" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>328</v>
-      </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="68"/>
-      <c r="I10" s="63" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="68"/>
-      <c r="I11" s="63" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="68"/>
-      <c r="I12" s="63" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="73" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71" t="s">
-        <v>262</v>
-      </c>
-      <c r="I13" s="63" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="68"/>
-      <c r="I14" s="63" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="68"/>
-      <c r="I15" s="63" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="I16" s="64" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="I17" s="63" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="69" t="s">
-        <v>323</v>
-      </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="D18" s="68"/>
-      <c r="I18" s="63" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>325</v>
-      </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="I19" s="63" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="I20" s="63" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="I21" s="63" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="69" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="67" t="s">
-        <v>318</v>
-      </c>
-      <c r="D22" s="68"/>
-      <c r="I22" s="63" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
-        <v>269</v>
-      </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="D23" s="68"/>
-      <c r="I23" s="64" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="69" t="s">
-        <v>313</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="I24" s="63" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="69" t="s">
-        <v>315</v>
-      </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="D25" s="68"/>
-      <c r="I25" s="63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
-        <v>316</v>
-      </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="D26" s="68"/>
-      <c r="I26" s="64" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I27" s="63" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I28" s="63" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="64" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I30" s="63" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I31" s="63" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I32" s="64" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="64" t="s">
-        <v>308</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7ED20A-5A3A-453C-8A81-923C8953B4C9}">
   <dimension ref="A1"/>
@@ -5548,7 +6116,7 @@
       <c r="F95" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G95" s="60" t="s">
+      <c r="G95" s="78" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5557,7 +6125,7 @@
         <v>66</v>
       </c>
       <c r="C96" s="22"/>
-      <c r="G96" s="60"/>
+      <c r="G96" s="78"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B97" s="21" t="s">
@@ -5567,10 +6135,10 @@
       <c r="D97" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G97" s="60"/>
+      <c r="G97" s="78"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G98" s="60"/>
+      <c r="G98" s="78"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="26" t="s">
@@ -5583,14 +6151,14 @@
       <c r="F99" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G99" s="60"/>
+      <c r="G99" s="78"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B100" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C100" s="22"/>
-      <c r="G100" s="60"/>
+      <c r="G100" s="78"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B101" s="21" t="s">
@@ -5600,13 +6168,13 @@
       <c r="D101" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="60"/>
+      <c r="G101" s="78"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F102" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="60"/>
+      <c r="G102" s="78"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="26" t="s">

--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE85BE8-D8C1-4EA2-B95C-6BAF6D689187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C24FC89-EF3E-431A-A4E6-CF1B12C0FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="BCParks" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="364">
   <si>
     <t>Table</t>
   </si>
@@ -1316,6 +1316,36 @@
   </si>
   <si>
     <t>isUnofficialSite</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Relates to Activities and Facilities</t>
+  </si>
+  <si>
+    <t>fees[]</t>
+  </si>
+  <si>
+    <t>standardFee</t>
+  </si>
+  <si>
+    <t>seniorFee</t>
+  </si>
+  <si>
+    <t>childFee</t>
+  </si>
+  <si>
+    <t>/adult/day;/adult/night;/adult/year;/child/day;/child/night;/discharge;/family/day;/family/night;/family/year;/group;/group site/night;/metre;/party or vessel/night;/party/night;/party/week;/person;/person/day;/person/night;/person/trip;/vessel;/vessel or aircraft/trip;/vessel/each way;/vessel/night</t>
+  </si>
+  <si>
+    <t>FeeApplication</t>
+  </si>
+  <si>
+    <t>feeApplication</t>
+  </si>
+  <si>
+    <t>Link to FeeApplication</t>
   </si>
 </sst>
 </file>
@@ -2110,11 +2140,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9256A4-85B0-483D-ABA5-01E16592AE65}">
-  <dimension ref="A1:J218"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J242"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4407,538 +4438,731 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B166" s="22" t="s">
-        <v>261</v>
+        <v>356</v>
       </c>
       <c r="C166" s="22"/>
-      <c r="D166" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="D166" s="19"/>
       <c r="E166" s="20"/>
-      <c r="F166" s="19" t="s">
-        <v>264</v>
-      </c>
+      <c r="F166" s="19"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B167" s="22" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C167" s="22"/>
-      <c r="D167" s="22" t="s">
+      <c r="D167" s="19" t="s">
         <v>61</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C168" s="22"/>
+      <c r="D168" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E168" s="20"/>
+      <c r="F168" s="19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B168" s="20"/>
-      <c r="C168" s="20"/>
-      <c r="D168" s="20"/>
-      <c r="E168" s="20"/>
-    </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="11" t="s">
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B169" s="26" t="s">
+      <c r="B170" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26" t="s">
+      <c r="C170" s="26"/>
+      <c r="D170" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E169" s="36"/>
-      <c r="F169" s="26" t="s">
+      <c r="E170" s="36"/>
+      <c r="F170" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B170" s="22" t="s">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B171" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C170" s="22"/>
-      <c r="D170" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E170" s="20"/>
-      <c r="F170" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B171" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30" t="s">
-        <v>260</v>
+      <c r="C171" s="22"/>
+      <c r="D171" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="19" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B172" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C172" s="22"/>
-      <c r="D172" s="19" t="s">
-        <v>47</v>
+      <c r="B172" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30" t="s">
+        <v>260</v>
       </c>
       <c r="E172" s="20"/>
       <c r="F172" s="19" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B173" s="22" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="C173" s="22"/>
       <c r="D173" s="19" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="19" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B174" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" s="22"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="19"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B175" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C175" s="22"/>
+      <c r="D175" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E175" s="20"/>
+      <c r="F175" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B176" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="C174" s="22"/>
-      <c r="D174" s="22" t="s">
+      <c r="C176" s="22"/>
+      <c r="D176" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E174" s="20"/>
-      <c r="F174" s="19" t="s">
+      <c r="E176" s="20"/>
+      <c r="F176" s="19" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B176" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E176" s="36"/>
-      <c r="F176" s="26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B177" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C177" s="22"/>
-      <c r="D177" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E177" s="24"/>
-      <c r="F177" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B178" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C178" s="22"/>
-      <c r="D178" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E178" s="24"/>
-      <c r="F178" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B179" s="22"/>
-      <c r="C179" s="22"/>
-      <c r="D179" s="22"/>
-      <c r="E179" s="24"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B181" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C181" s="26"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="36"/>
-      <c r="F181" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B182" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C182" s="22"/>
-      <c r="D182" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E182" s="24"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B183" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C183" s="22"/>
-      <c r="D183" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E183" s="24"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B184" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C184" s="22"/>
-      <c r="D184" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E184" s="24"/>
-      <c r="F184" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B185" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C185" s="30"/>
-      <c r="D185" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E185" s="24"/>
-      <c r="F185" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
-      <c r="E186" s="24"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B187" s="22"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
-      <c r="E187" s="24"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B188" s="22"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
-      <c r="E188" s="24"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B177" s="24"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B179" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B180" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B181" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B182" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="E182" s="20"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B183" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B184" s="24"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B185" s="24"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B187" s="24"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B189" s="24"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="20"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="B190" s="26"/>
       <c r="C190" s="26"/>
       <c r="D190" s="26"/>
-      <c r="E190" s="36"/>
-      <c r="I190" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B191" s="22"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
-      <c r="E191" s="24"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B192" s="22"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="22"/>
-      <c r="E192" s="24"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B194" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26" t="s">
+      <c r="E190" s="20"/>
+      <c r="F190" s="24"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B191" s="24"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B194" s="24"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B195" s="24"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B196" s="24"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B197" s="24"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="20"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B198" s="24"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C200" s="26"/>
+      <c r="D200" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E194" s="36"/>
-      <c r="F194" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B195" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C195" s="22"/>
-      <c r="D195" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E195" s="24"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B196" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E196" s="24"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B197" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C197" s="30"/>
-      <c r="D197" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E197" s="25"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B198" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C198" s="19"/>
-      <c r="D198" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E198" s="24"/>
-      <c r="F198" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B199" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C199" s="22"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="20"/>
-      <c r="F199" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A201" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B201" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E201" s="36"/>
-      <c r="F201" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I201" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E200" s="36"/>
+      <c r="F200" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B201" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E201" s="24"/>
+      <c r="F201" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B202" s="22" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C202" s="22"/>
       <c r="D202" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E202" s="24"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B203" s="22" t="s">
+      <c r="F202" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B203" s="22"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="24"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B205" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C205" s="26"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="36"/>
+      <c r="F205" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B206" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E206" s="24"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B207" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E207" s="24"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B208" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E208" s="24"/>
+      <c r="F208" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B209" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C209" s="30"/>
+      <c r="D209" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E209" s="24"/>
+      <c r="F209" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B210" s="22"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
+      <c r="E210" s="24"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B211" s="22"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="24"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B212" s="22"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
+      <c r="E212" s="24"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B214" s="26"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="26"/>
+      <c r="E214" s="36"/>
+      <c r="I214" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B215" s="22"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="22"/>
+      <c r="E215" s="24"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B216" s="22"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="24"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B218" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C218" s="26"/>
+      <c r="D218" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E218" s="36"/>
+      <c r="F218" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B219" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E219" s="24"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B220" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E220" s="24"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B221" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C221" s="30"/>
+      <c r="D221" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E221" s="25"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B222" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C222" s="19"/>
+      <c r="D222" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E222" s="24"/>
+      <c r="F222" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B223" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C223" s="22"/>
+      <c r="D223" s="19"/>
+      <c r="E223" s="20"/>
+      <c r="F223" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B225" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C225" s="26"/>
+      <c r="D225" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E225" s="36"/>
+      <c r="F225" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I225" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B226" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C226" s="22"/>
+      <c r="D226" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E226" s="24"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B227" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E203" s="24"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B204" s="30" t="s">
+      <c r="C227" s="22"/>
+      <c r="D227" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E227" s="24"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B228" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C204" s="30"/>
-      <c r="D204" s="30" t="s">
+      <c r="C228" s="30"/>
+      <c r="D228" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="E204" s="25"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B205" s="19" t="s">
+      <c r="E228" s="25"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B229" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C205" s="19"/>
-      <c r="D205" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E205" s="24"/>
-      <c r="F205" s="18" t="s">
+      <c r="C229" s="19"/>
+      <c r="D229" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E229" s="24"/>
+      <c r="F229" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B206" s="22" t="s">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B230" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C206" s="22"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="20"/>
-      <c r="F206" s="18" t="s">
+      <c r="C230" s="22"/>
+      <c r="D230" s="19"/>
+      <c r="E230" s="20"/>
+      <c r="F230" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208" s="11" t="s">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B208" s="26" t="s">
+      <c r="B232" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C208" s="26"/>
-      <c r="D208" s="26" t="s">
+      <c r="C232" s="26"/>
+      <c r="D232" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E208" s="36"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B209" s="22" t="s">
+      <c r="E232" s="36"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B233" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="C209" s="22"/>
-      <c r="D209" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E209" s="24"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B210" s="22" t="s">
+      <c r="C233" s="22"/>
+      <c r="D233" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E233" s="24"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B234" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C210" s="22"/>
-      <c r="D210" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E210" s="24"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="18"/>
-      <c r="B212" s="42" t="s">
+      <c r="C234" s="22"/>
+      <c r="D234" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E234" s="24"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" s="18"/>
+      <c r="B236" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C212" s="42"/>
-      <c r="D212" s="42" t="s">
+      <c r="C236" s="42"/>
+      <c r="D236" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E212" s="42"/>
-      <c r="F212" s="42" t="s">
+      <c r="E236" s="42"/>
+      <c r="F236" s="42" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A213" s="18"/>
-      <c r="B213" s="43">
+    <row r="237" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A237" s="18"/>
+      <c r="B237" s="43">
         <v>1</v>
       </c>
-      <c r="C213" s="43"/>
-      <c r="D213" s="44" t="s">
+      <c r="C237" s="43"/>
+      <c r="D237" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="E213" s="44"/>
-      <c r="F213" s="44" t="s">
+      <c r="E237" s="44"/>
+      <c r="F237" s="44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="18"/>
-      <c r="B214" s="43">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" s="18"/>
+      <c r="B238" s="43">
         <v>2</v>
       </c>
-      <c r="C214" s="43"/>
-      <c r="D214" s="44" t="s">
+      <c r="C238" s="43"/>
+      <c r="D238" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="E214" s="44"/>
-      <c r="F214" s="44" t="s">
+      <c r="E238" s="44"/>
+      <c r="F238" s="44" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A215" s="18"/>
-      <c r="B215" s="43">
+    <row r="239" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A239" s="18"/>
+      <c r="B239" s="43">
         <v>3</v>
       </c>
-      <c r="C215" s="43"/>
-      <c r="D215" s="44" t="s">
+      <c r="C239" s="43"/>
+      <c r="D239" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="E215" s="44"/>
-      <c r="F215" s="44" t="s">
+      <c r="E239" s="44"/>
+      <c r="F239" s="44" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="18"/>
-      <c r="B216" s="43">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" s="18"/>
+      <c r="B240" s="43">
         <v>4</v>
       </c>
-      <c r="C216" s="43"/>
-      <c r="D216" s="44" t="s">
+      <c r="C240" s="43"/>
+      <c r="D240" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="E216" s="44"/>
-      <c r="F216" s="44" t="s">
+      <c r="E240" s="44"/>
+      <c r="F240" s="44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A217" s="18"/>
-      <c r="B217" s="43">
+    <row r="241" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A241" s="18"/>
+      <c r="B241" s="43">
         <v>5</v>
       </c>
-      <c r="C217" s="43"/>
-      <c r="D217" s="44" t="s">
+      <c r="C241" s="43"/>
+      <c r="D241" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="E217" s="44"/>
-      <c r="F217" s="44" t="s">
+      <c r="E241" s="44"/>
+      <c r="F241" s="44" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A218" s="18"/>
-      <c r="B218" s="43">
+    <row r="242" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A242" s="18"/>
+      <c r="B242" s="43">
         <v>6</v>
       </c>
-      <c r="C218" s="43"/>
-      <c r="D218" s="44" t="s">
+      <c r="C242" s="43"/>
+      <c r="D242" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="E218" s="44"/>
-      <c r="F218" s="44" t="s">
+      <c r="E242" s="44"/>
+      <c r="F242" s="44" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4956,9 +5180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86AC28D-7F4B-4498-8004-F61C61491AB7}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C24FC89-EF3E-431A-A4E6-CF1B12C0FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D114B-98D1-4EDE-B38A-905DE803B3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="BCParks" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="364">
   <si>
     <t>Table</t>
   </si>
@@ -1318,34 +1318,34 @@
     <t>isUnofficialSite</t>
   </si>
   <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Relates to Activities and Facilities</t>
+    <t>Inactive; Draft; Approval Requested; Approved; Published</t>
   </si>
   <si>
     <t>fees[]</t>
   </si>
   <si>
-    <t>standardFee</t>
-  </si>
-  <si>
-    <t>seniorFee</t>
-  </si>
-  <si>
-    <t>childFee</t>
-  </si>
-  <si>
-    <t>/adult/day;/adult/night;/adult/year;/child/day;/child/night;/discharge;/family/day;/family/night;/family/year;/group;/group site/night;/metre;/party or vessel/night;/party/night;/party/week;/person;/person/day;/person/night;/person/trip;/vessel;/vessel or aircraft/trip;/vessel/each way;/vessel/night</t>
-  </si>
-  <si>
-    <t>FeeApplication</t>
-  </si>
-  <si>
-    <t>feeApplication</t>
-  </si>
-  <si>
-    <t>Link to FeeApplication</t>
+    <t>ParkPhotos</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>dateTaken</t>
+  </si>
+  <si>
+    <t>photographer</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1700,6 +1700,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1711,7 +1724,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1819,6 +1832,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" customBuiltin="1"/>
@@ -2140,12 +2154,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9256A4-85B0-483D-ABA5-01E16592AE65}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J242"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2693,7 +2706,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>39</v>
+        <v>354</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>247</v>
@@ -3574,40 +3587,21 @@
       <c r="C96" s="24"/>
       <c r="D96" s="37"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="36"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="36"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C99" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="18"/>
-      <c r="B99" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>47</v>
@@ -3616,17 +3610,20 @@
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
       <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
+      <c r="I99" s="37" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="18"/>
       <c r="B100" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="37"/>
@@ -3636,13 +3633,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B101" s="22" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="37"/>
@@ -3652,28 +3649,26 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B102" s="22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
       <c r="H102" s="37"/>
-      <c r="I102" s="37" t="s">
-        <v>64</v>
-      </c>
+      <c r="I102" s="37"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D103" s="22" t="s">
         <v>46</v>
@@ -3688,34 +3683,40 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="22" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E104" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105" s="22" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E105" s="20"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B106" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D106" s="22" t="s">
         <v>48</v>
@@ -3724,326 +3725,326 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B107" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E107" s="20"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="C108" s="22"/>
+        <v>182</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>182</v>
+      </c>
       <c r="D108" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="40" t="s">
-        <v>81</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E108" s="20"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="22" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="C109" s="22"/>
       <c r="D109" s="22" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E110" s="24"/>
+      <c r="F110" s="40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="22"/>
-      <c r="C110" s="22" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B111" s="22"/>
+      <c r="C111" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="D111" s="22" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C111" s="47"/>
-      <c r="D111" s="58"/>
-    </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
+      <c r="C112" s="47"/>
+      <c r="D112" s="58"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="36"/>
-      <c r="H112" s="18" t="s">
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="36"/>
+      <c r="H113" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I112" s="67" t="s">
+      <c r="I113" s="67" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="57"/>
-      <c r="B113" s="22" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="57"/>
+      <c r="B114" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C114" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="D114" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="36"/>
-      <c r="I113" s="67"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B114" s="22" t="s">
+      <c r="E114" s="36"/>
+      <c r="I114" s="67"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B115" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C115" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="D114" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E114" s="20"/>
-      <c r="I114" s="67"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B115" s="22" t="s">
+      <c r="D115" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E115" s="20"/>
+      <c r="I115" s="67"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B116" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C116" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="18" t="s">
+      <c r="D116" s="22"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I115" s="67"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B116" s="22"/>
-      <c r="C116" s="22" t="s">
+      <c r="I116" s="67"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B117" s="22"/>
+      <c r="C117" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="D117" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="E116" s="20"/>
-      <c r="I116" s="67"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E117" s="20"/>
       <c r="I117" s="67"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I118" s="67"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26" t="s">
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E118" s="36"/>
-      <c r="H118" s="18" t="s">
+      <c r="E119" s="36"/>
+      <c r="H119" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I118" s="67"/>
-    </row>
-    <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B119" s="22" t="s">
+      <c r="I119" s="67"/>
+    </row>
+    <row r="120" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B120" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C119" s="22" t="s">
+      <c r="C120" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="D119" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E119" s="20"/>
-      <c r="I119" s="67"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B120" s="22" t="s">
+      <c r="D120" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E120" s="20"/>
+      <c r="I120" s="67"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C121" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="D120" s="22"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I120" s="67"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B121" s="22"/>
-      <c r="C121" s="22" t="s">
-        <v>315</v>
       </c>
       <c r="D121" s="22"/>
       <c r="E121" s="20"/>
+      <c r="F121" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="I121" s="67"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B122" s="22" t="s">
-        <v>25</v>
-      </c>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="22"/>
       <c r="C122" s="22" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D122" s="22"/>
       <c r="E122" s="20"/>
       <c r="I122" s="67"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B123" s="56"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="56"/>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D123" s="22"/>
       <c r="E123" s="20"/>
       <c r="I123" s="67"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H124" s="18" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="56"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="20"/>
+      <c r="I124" s="67"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H125" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I124" s="67"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
+      <c r="I125" s="67"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B125" s="26" t="s">
+      <c r="B126" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26" t="s">
+      <c r="C126" s="26"/>
+      <c r="D126" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E125" s="36"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B126" s="39" t="s">
+      <c r="E126" s="36"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C126" s="39"/>
-      <c r="D126" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E126" s="20"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
+      <c r="C127" s="39"/>
+      <c r="D127" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" s="20"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="18" t="s">
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H128" s="18" t="s">
+      <c r="H129" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J128" s="41" t="s">
+      <c r="J129" s="41" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B129" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D129" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E129" s="20"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B130" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E130" s="20"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B131" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E131" s="20"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B132" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C131" s="22" t="s">
+      <c r="C132" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="D131" s="22"/>
-      <c r="E131" s="20"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
+      <c r="D132" s="22"/>
+      <c r="E132" s="20"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="18" t="s">
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H133" s="18" t="s">
+      <c r="H134" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="I133" s="24" t="s">
+      <c r="I134" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="J133" s="23" t="s">
+      <c r="J134" s="23" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B134" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="D134" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E134" s="20"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B135" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E135" s="20"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B136" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D136" s="22" t="s">
         <v>47</v>
@@ -4052,24 +4053,23 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B137" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C137" s="22"/>
+        <v>218</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>218</v>
+      </c>
       <c r="D137" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E137" s="20"/>
-      <c r="F137" s="18" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B138" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C138" s="22"/>
       <c r="D138" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="18" t="s">
@@ -4077,736 +4077,761 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B139" s="22"/>
-      <c r="C139" s="22" t="s">
+      <c r="B139" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E139" s="20"/>
+      <c r="F139" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B140" s="22"/>
+      <c r="C140" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="D139" s="22" t="s">
+      <c r="D140" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="E139" s="20"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="11" t="s">
+      <c r="E140" s="20"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="36"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="10"/>
-      <c r="B142" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D142" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E142" s="20"/>
-      <c r="F142" s="26" t="s">
-        <v>267</v>
-      </c>
+      <c r="B142" s="26"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="36"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="B143" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D143" s="19" t="s">
-        <v>47</v>
+        <v>219</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="E143" s="20"/>
-      <c r="F143" s="19" t="s">
-        <v>265</v>
+      <c r="F143" s="26" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
       <c r="B144" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D144" s="19" t="s">
         <v>47</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="19" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
-      <c r="B145" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>222</v>
+      <c r="B145" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="D145" s="19" t="s">
         <v>47</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
       <c r="B146" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D146" s="19" t="s">
         <v>47</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="19" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="19" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="B149" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E149" s="20"/>
+      <c r="F149" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="10"/>
+      <c r="B150" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C150" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D149" s="19" t="s">
+      <c r="D150" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F149" s="19" t="s">
+      <c r="F150" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C150" s="47"/>
-    </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="11" t="s">
+      <c r="C151" s="47"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="36"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="10"/>
-      <c r="B152" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C152" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D152" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E152" s="20"/>
-      <c r="F152" s="26" t="s">
-        <v>266</v>
-      </c>
+      <c r="B152" s="26"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="36"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="B153" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E153" s="20"/>
-      <c r="F153" s="19" t="s">
-        <v>265</v>
+      <c r="F153" s="26" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
       <c r="B154" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D154" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="19" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
       <c r="B155" s="22" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D155" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
       <c r="B156" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D156" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
       <c r="B157" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E157" s="25"/>
+        <v>47</v>
+      </c>
+      <c r="E157" s="20"/>
       <c r="F157" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
       <c r="B158" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E158" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="E158" s="25"/>
       <c r="F158" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="B159" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C159" s="22" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="19" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="B160" s="22" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="10"/>
+      <c r="B161" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E161" s="20"/>
+      <c r="F161" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B161" s="20"/>
-      <c r="C161" s="20"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-    </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="11" t="s">
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B163" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C162" s="26"/>
-      <c r="D162" s="26" t="s">
+      <c r="C163" s="26"/>
+      <c r="D163" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E162" s="36"/>
-      <c r="F162" s="26" t="s">
+      <c r="E163" s="36"/>
+      <c r="F163" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B163" s="22" t="s">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C163" s="22"/>
-      <c r="D163" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E163" s="20"/>
-      <c r="F163" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B164" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30" t="s">
-        <v>258</v>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="19" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B165" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C165" s="22"/>
-      <c r="D165" s="19" t="s">
-        <v>47</v>
+      <c r="B165" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30" t="s">
+        <v>258</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="19" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B166" s="22" t="s">
-        <v>356</v>
+        <v>171</v>
       </c>
       <c r="C166" s="22"/>
-      <c r="D166" s="19"/>
+      <c r="D166" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="E166" s="20"/>
-      <c r="F166" s="19"/>
+      <c r="F166" s="19" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B167" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="C167" s="22"/>
-      <c r="D167" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="B167" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
       <c r="E167" s="20"/>
-      <c r="F167" s="19" t="s">
-        <v>264</v>
-      </c>
+      <c r="F167" s="19"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B168" s="22" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C168" s="22"/>
-      <c r="D168" s="22" t="s">
+      <c r="D168" s="19" t="s">
         <v>61</v>
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E169" s="20"/>
+      <c r="F169" s="19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B169" s="20"/>
-      <c r="C169" s="20"/>
-      <c r="D169" s="20"/>
-      <c r="E169" s="20"/>
-    </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="11" t="s">
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B170" s="26" t="s">
+      <c r="B171" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26" t="s">
+      <c r="C171" s="26"/>
+      <c r="D171" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E170" s="36"/>
-      <c r="F170" s="26" t="s">
+      <c r="E171" s="36"/>
+      <c r="F171" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B171" s="22" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B172" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C171" s="22"/>
-      <c r="D171" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E171" s="20"/>
-      <c r="F171" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B172" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30" t="s">
-        <v>260</v>
+      <c r="C172" s="22"/>
+      <c r="D172" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="E172" s="20"/>
       <c r="F172" s="19" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B173" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C173" s="22"/>
-      <c r="D173" s="19" t="s">
-        <v>47</v>
+      <c r="B173" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30" t="s">
+        <v>260</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="19" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B174" s="22" t="s">
-        <v>356</v>
+        <v>171</v>
       </c>
       <c r="C174" s="22"/>
-      <c r="D174" s="19"/>
+      <c r="D174" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="E174" s="20"/>
-      <c r="F174" s="19"/>
+      <c r="F174" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B175" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C175" s="22"/>
-      <c r="D175" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="B175" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
       <c r="E175" s="20"/>
-      <c r="F175" s="19" t="s">
-        <v>263</v>
-      </c>
+      <c r="F175" s="19"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B176" s="22" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C176" s="22"/>
-      <c r="D176" s="22" t="s">
+      <c r="D176" s="19" t="s">
         <v>61</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B177" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E177" s="20"/>
+      <c r="F177" s="19" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B177" s="24"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="24" t="s">
-        <v>355</v>
-      </c>
-    </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B179" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="C179" s="24"/>
-      <c r="D179" s="24"/>
-      <c r="E179" s="20"/>
-      <c r="F179" s="20"/>
+      <c r="A179" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B179" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E179" s="36"/>
+      <c r="F179" s="26" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B180" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="C180" s="24"/>
-      <c r="D180" s="24"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
+      <c r="B180" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E180" s="24"/>
+      <c r="F180" s="19" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B181" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="C181" s="24"/>
-      <c r="D181" s="24"/>
-      <c r="E181" s="20"/>
-      <c r="F181" s="20"/>
+      <c r="B181" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E181" s="24"/>
+      <c r="F181" s="19" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B182" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="E182" s="20"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B183" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C183" s="24"/>
-      <c r="D183" s="24"/>
-      <c r="E183" s="20"/>
-      <c r="F183" s="20"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="24"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B184" s="24"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="24"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="20"/>
+      <c r="A184" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B184" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="36"/>
+      <c r="F184" s="18" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B185" s="24"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="24"/>
-      <c r="E185" s="20"/>
-      <c r="F185" s="20"/>
+      <c r="B185" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E185" s="24"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B186" s="24"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="24"/>
-      <c r="E186" s="20"/>
-      <c r="F186" s="20"/>
+      <c r="B186" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E186" s="24"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B187" s="24"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="24"/>
-      <c r="E187" s="20"/>
-      <c r="F187" s="20"/>
+      <c r="B187" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E187" s="24"/>
+      <c r="F187" s="18" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B188" s="24"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="24"/>
-      <c r="E188" s="20"/>
-      <c r="F188" s="20"/>
+      <c r="B188" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E188" s="24"/>
+      <c r="F188" s="18" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B189" s="24"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="24"/>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="24"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="20"/>
-      <c r="F190" s="24"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="24"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B191" s="24"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="24"/>
-      <c r="E191" s="20"/>
-      <c r="F191" s="20" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B192" s="24"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="24"/>
-      <c r="E192" s="20"/>
-      <c r="F192" s="20"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B193" s="24"/>
-      <c r="C193" s="24"/>
-      <c r="D193" s="24"/>
-      <c r="E193" s="20"/>
-      <c r="F193" s="20"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B194" s="24"/>
-      <c r="C194" s="24"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B195" s="24"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="20"/>
-      <c r="F195" s="20"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B196" s="24"/>
-      <c r="C196" s="24"/>
-      <c r="D196" s="24"/>
-      <c r="E196" s="20"/>
-      <c r="F196" s="20"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B197" s="24"/>
-      <c r="C197" s="24"/>
-      <c r="D197" s="24"/>
-      <c r="E197" s="20"/>
-      <c r="F197" s="20"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B198" s="24"/>
-      <c r="C198" s="24"/>
-      <c r="D198" s="24"/>
-      <c r="E198" s="20"/>
-      <c r="F198" s="20"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B200" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26" t="s">
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="24"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B193" s="26"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="36"/>
+      <c r="I193" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B194" s="22"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="22"/>
+      <c r="E194" s="24"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="24"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C197" s="26"/>
+      <c r="D197" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E200" s="36"/>
-      <c r="F200" s="26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B201" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C201" s="22"/>
+      <c r="E197" s="36"/>
+      <c r="F197" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B198" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E198" s="24"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B199" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E199" s="24"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B200" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C200" s="30"/>
+      <c r="D200" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E200" s="25"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B201" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C201" s="19"/>
       <c r="D201" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E201" s="24"/>
-      <c r="F201" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F201" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B202" s="22" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="C202" s="22"/>
-      <c r="D202" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E202" s="24"/>
-      <c r="F202" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
-      <c r="E203" s="24"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B205" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C205" s="26"/>
-      <c r="D205" s="26"/>
-      <c r="E205" s="36"/>
-      <c r="F205" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D202" s="19"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B204" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C204" s="26"/>
+      <c r="D204" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E204" s="36"/>
+      <c r="F204" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I204" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B205" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205" s="22"/>
+      <c r="D205" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E205" s="24"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B206" s="22" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C206" s="22"/>
       <c r="D206" s="22" t="s">
@@ -4814,364 +4839,275 @@
       </c>
       <c r="E206" s="24"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B207" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C207" s="22"/>
-      <c r="D207" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E207" s="24"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B208" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C208" s="22"/>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B207" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C207" s="30"/>
+      <c r="D207" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E207" s="25"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B208" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C208" s="19"/>
       <c r="D208" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E208" s="24"/>
       <c r="F208" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B209" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C209" s="30"/>
-      <c r="D209" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E209" s="24"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B209" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C209" s="22"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="20"/>
       <c r="F209" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B210" s="22"/>
-      <c r="C210" s="22"/>
-      <c r="D210" s="22"/>
-      <c r="E210" s="24"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B211" s="22"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="22"/>
-      <c r="E211" s="24"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B212" s="22"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B211" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C211" s="26"/>
+      <c r="D211" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E211" s="36"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B212" s="22" t="s">
+        <v>240</v>
+      </c>
       <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
+      <c r="D212" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="E212" s="24"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="26"/>
-      <c r="E214" s="36"/>
-      <c r="I214" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B215" s="22"/>
-      <c r="C215" s="22"/>
-      <c r="D215" s="22"/>
-      <c r="E215" s="24"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B216" s="22"/>
-      <c r="C216" s="22"/>
-      <c r="D216" s="22"/>
-      <c r="E216" s="24"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B218" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E218" s="36"/>
-      <c r="F218" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B219" s="22" t="s">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B213" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E213" s="24"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="18"/>
+      <c r="B215" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C215" s="42"/>
+      <c r="D215" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="E215" s="42"/>
+      <c r="F215" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A216" s="18"/>
+      <c r="B216" s="43">
+        <v>1</v>
+      </c>
+      <c r="C216" s="43"/>
+      <c r="D216" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E216" s="44"/>
+      <c r="F216" s="44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="18"/>
+      <c r="B217" s="43">
+        <v>2</v>
+      </c>
+      <c r="C217" s="43"/>
+      <c r="D217" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E217" s="44"/>
+      <c r="F217" s="44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A218" s="18"/>
+      <c r="B218" s="43">
+        <v>3</v>
+      </c>
+      <c r="C218" s="43"/>
+      <c r="D218" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E218" s="44"/>
+      <c r="F218" s="44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="18"/>
+      <c r="B219" s="43">
+        <v>4</v>
+      </c>
+      <c r="C219" s="43"/>
+      <c r="D219" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="E219" s="44"/>
+      <c r="F219" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A220" s="18"/>
+      <c r="B220" s="43">
+        <v>5</v>
+      </c>
+      <c r="C220" s="43"/>
+      <c r="D220" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="E220" s="44"/>
+      <c r="F220" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A221" s="18"/>
+      <c r="B221" s="43">
+        <v>6</v>
+      </c>
+      <c r="C221" s="43"/>
+      <c r="D221" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E221" s="44"/>
+      <c r="F221" s="44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B223" s="69"/>
+      <c r="C223" s="69"/>
+      <c r="D223" s="69"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B224" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E219" s="24"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B220" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C220" s="22"/>
-      <c r="D220" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E220" s="24"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B221" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C221" s="30"/>
-      <c r="D221" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E221" s="25"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B222" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C222" s="19"/>
-      <c r="D222" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E222" s="24"/>
-      <c r="F222" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B223" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C223" s="22"/>
-      <c r="D223" s="19"/>
-      <c r="E223" s="20"/>
-      <c r="F223" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A225" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B225" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C225" s="26"/>
-      <c r="D225" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E225" s="36"/>
-      <c r="F225" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I225" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C224" s="19"/>
+      <c r="D224" s="19"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="19"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B225" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C225" s="19"/>
+      <c r="D225" s="19"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="19"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B226" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C226" s="22"/>
-      <c r="D226" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E226" s="24"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="C226" s="19"/>
+      <c r="D226" s="19"/>
+      <c r="E226" s="19"/>
+      <c r="F226" s="19"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B227" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C227" s="22"/>
-      <c r="D227" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E227" s="24"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B228" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C228" s="30"/>
-      <c r="D228" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E228" s="25"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B229" s="19" t="s">
-        <v>241</v>
+        <v>357</v>
+      </c>
+      <c r="C227" s="19"/>
+      <c r="D227" s="19"/>
+      <c r="E227" s="19"/>
+      <c r="F227" s="19"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B228" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C228" s="19"/>
+      <c r="D228" s="19"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="19"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B229" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="C229" s="19"/>
-      <c r="D229" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E229" s="24"/>
-      <c r="F229" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="19"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B230" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C230" s="22"/>
+        <v>360</v>
+      </c>
+      <c r="C230" s="19"/>
       <c r="D230" s="19"/>
-      <c r="E230" s="20"/>
-      <c r="F230" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B232" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="C232" s="26"/>
-      <c r="D232" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E232" s="36"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E230" s="19"/>
+      <c r="F230" s="19"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B231" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C231" s="19"/>
+      <c r="D231" s="19"/>
+      <c r="E231" s="19"/>
+      <c r="F231" s="19"/>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B232" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="19"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C233" s="22"/>
-      <c r="D233" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E233" s="24"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B234" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C234" s="22"/>
-      <c r="D234" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E234" s="24"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A236" s="18"/>
-      <c r="B236" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C236" s="42"/>
-      <c r="D236" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="E236" s="42"/>
-      <c r="F236" s="42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A237" s="18"/>
-      <c r="B237" s="43">
-        <v>1</v>
-      </c>
-      <c r="C237" s="43"/>
-      <c r="D237" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E237" s="44"/>
-      <c r="F237" s="44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A238" s="18"/>
-      <c r="B238" s="43">
-        <v>2</v>
-      </c>
-      <c r="C238" s="43"/>
-      <c r="D238" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="E238" s="44"/>
-      <c r="F238" s="44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A239" s="18"/>
-      <c r="B239" s="43">
-        <v>3</v>
-      </c>
-      <c r="C239" s="43"/>
-      <c r="D239" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E239" s="44"/>
-      <c r="F239" s="44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A240" s="18"/>
-      <c r="B240" s="43">
-        <v>4</v>
-      </c>
-      <c r="C240" s="43"/>
-      <c r="D240" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="E240" s="44"/>
-      <c r="F240" s="44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A241" s="18"/>
-      <c r="B241" s="43">
-        <v>5</v>
-      </c>
-      <c r="C241" s="43"/>
-      <c r="D241" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="E241" s="44"/>
-      <c r="F241" s="44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A242" s="18"/>
-      <c r="B242" s="43">
-        <v>6</v>
-      </c>
-      <c r="C242" s="43"/>
-      <c r="D242" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E242" s="44"/>
-      <c r="F242" s="44" t="s">
-        <v>149</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C233" s="19"/>
+      <c r="D233" s="19"/>
+      <c r="E233" s="19"/>
+      <c r="F233" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I112:I124"/>
+    <mergeCell ref="I113:I125"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J128" r:id="rId1" xr:uid="{C542003A-DE46-4D98-A11B-9CC195E7F11A}"/>
+    <hyperlink ref="J129" r:id="rId1" xr:uid="{C542003A-DE46-4D98-A11B-9CC195E7F11A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId2"/>
@@ -5180,12 +5116,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86AC28D-7F4B-4498-8004-F61C61491AB7}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62A51D4-845E-4B02-BD1B-598891E07ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443D28E4-E4D3-4653-925F-5F0FB6B334D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="373">
   <si>
     <t>Table</t>
   </si>
@@ -1370,6 +1370,9 @@
   </si>
   <si>
     <t>Used to categorize the message based on the eventType that it would be associated with</t>
+  </si>
+  <si>
+    <t>AdvisoryAudit</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1760,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1871,6 +1874,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" customBuiltin="1"/>
@@ -2195,8 +2199,8 @@
   <dimension ref="A1:J242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2500,7 +2504,7 @@
     </row>
     <row r="16" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="71" t="s">
         <v>365</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -2950,7 +2954,7 @@
     </row>
     <row r="42" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>

--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443D28E4-E4D3-4653-925F-5F0FB6B334D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E18E87-6DD9-4EA1-947B-CE2D6B305EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
@@ -2199,8 +2199,8 @@
   <dimension ref="A1:J242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2486,13 +2486,13 @@
     </row>
     <row r="15" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="45" t="b">

--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rofiddle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E18E87-6DD9-4EA1-947B-CE2D6B305EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF999796-8CFD-4F11-925D-6DA14C516D60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="BCParks" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="472">
   <si>
     <t>Table</t>
   </si>
@@ -842,12 +842,6 @@
   </si>
   <si>
     <t>Asset type number used in the Asset Management System (AMS)</t>
-  </si>
-  <si>
-    <t>Activity[]</t>
-  </si>
-  <si>
-    <t>Facility[]</t>
   </si>
   <si>
     <t>Specifies the activity type</t>
@@ -1339,12 +1333,6 @@
     <t>thumbnail</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Director's Order, Map, Evacuation, Information Bulletin</t>
-  </si>
-  <si>
     <t>Working table for PublicAdvisory; will hold history of updates within an advisory and published advisories will be copied to PublicAdvisory</t>
   </si>
   <si>
@@ -1373,13 +1361,345 @@
   </si>
   <si>
     <t>AdvisoryAudit</t>
+  </si>
+  <si>
+    <t>hasReservations</t>
+  </si>
+  <si>
+    <t>hasParkGate</t>
+  </si>
+  <si>
+    <t>vehicleSites</t>
+  </si>
+  <si>
+    <t>vehicleSitesReservable</t>
+  </si>
+  <si>
+    <t>walkInSites</t>
+  </si>
+  <si>
+    <t>walkInSitesReservable</t>
+  </si>
+  <si>
+    <t>doubleSites</t>
+  </si>
+  <si>
+    <t>pullThroughSites</t>
+  </si>
+  <si>
+    <t>groupSites</t>
+  </si>
+  <si>
+    <t>groupSitesReservable</t>
+  </si>
+  <si>
+    <t>rvSites</t>
+  </si>
+  <si>
+    <t>rvSitesReservable</t>
+  </si>
+  <si>
+    <t>electrifiedSites</t>
+  </si>
+  <si>
+    <t>wildernessSites</t>
+  </si>
+  <si>
+    <t>backcountrySites</t>
+  </si>
+  <si>
+    <t>cabins</t>
+  </si>
+  <si>
+    <t>huts</t>
+  </si>
+  <si>
+    <t>yurts</t>
+  </si>
+  <si>
+    <t>horseSites</t>
+  </si>
+  <si>
+    <t>shelters</t>
+  </si>
+  <si>
+    <t>longStaySites</t>
+  </si>
+  <si>
+    <t>openNote</t>
+  </si>
+  <si>
+    <t>offSeasonNote</t>
+  </si>
+  <si>
+    <t>openDate</t>
+  </si>
+  <si>
+    <t>closeDate</t>
+  </si>
+  <si>
+    <t>adminNote</t>
+  </si>
+  <si>
+    <t>boatLaunches</t>
+  </si>
+  <si>
+    <t>offSeasonUse</t>
+  </si>
+  <si>
+    <t>ParkActivity[]</t>
+  </si>
+  <si>
+    <t>ParkFacility[]</t>
+  </si>
+  <si>
+    <t>ParkOperation</t>
+  </si>
+  <si>
+    <t>Link to ParkOperation</t>
+  </si>
+  <si>
+    <t>Single record</t>
+  </si>
+  <si>
+    <t>frontcountrySites</t>
+  </si>
+  <si>
+    <t>serviceNote</t>
+  </si>
+  <si>
+    <t>reservationNote</t>
+  </si>
+  <si>
+    <t>generalNote</t>
+  </si>
+  <si>
+    <t>Closure Order, Map, Evacuation, Information Bulletin</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>internal administrative notes; not for public</t>
+  </si>
+  <si>
+    <t>Park is closed to public access as of this date</t>
+  </si>
+  <si>
+    <t>Park is open to public access as of this date</t>
+  </si>
+  <si>
+    <t>Unique ID of the site that this record applies to</t>
+  </si>
+  <si>
+    <t>Unique ID of the park that this record applies to</t>
+  </si>
+  <si>
+    <t>reservableSites</t>
+  </si>
+  <si>
+    <t>nonReservableSites</t>
+  </si>
+  <si>
+    <t>Total reservable frontcountry sites</t>
+  </si>
+  <si>
+    <t>Total non-reservable frontcountry sites</t>
+  </si>
+  <si>
+    <t>Indicates that the park is available and open in the off-season</t>
+  </si>
+  <si>
+    <t>Indicates that there is a park gate</t>
+  </si>
+  <si>
+    <t>Indicates that the park has reservable facilities/campsites</t>
+  </si>
+  <si>
+    <t>boatAccessSites</t>
+  </si>
+  <si>
+    <t>Total campsites of this type; occasionally might need text entry to specify that the number is undefined or approximate</t>
+  </si>
+  <si>
+    <t>Contains a summary of what features exist in the site, as well as a date range that it is open to public access</t>
+  </si>
+  <si>
+    <t>Total frontcountry campsites; includes vehicle-accessible and walk-in sites</t>
+  </si>
+  <si>
+    <t>General note about services available</t>
+  </si>
+  <si>
+    <t>General note about public access</t>
+  </si>
+  <si>
+    <t>General note about reservations</t>
+  </si>
+  <si>
+    <t>General note about off-season use</t>
+  </si>
+  <si>
+    <t>General note about the park</t>
+  </si>
+  <si>
+    <t>Total cabins available</t>
+  </si>
+  <si>
+    <t>Total huts available</t>
+  </si>
+  <si>
+    <t>Total yurts available</t>
+  </si>
+  <si>
+    <t>Total shelters available</t>
+  </si>
+  <si>
+    <t>Total boat launches available</t>
+  </si>
+  <si>
+    <t>featureNumber</t>
+  </si>
+  <si>
+    <t>featureName</t>
+  </si>
+  <si>
+    <t>isOpen</t>
+  </si>
+  <si>
+    <t>dcPlaceID</t>
+  </si>
+  <si>
+    <t>dcFacilityID</t>
+  </si>
+  <si>
+    <t>parkUnitID</t>
+  </si>
+  <si>
+    <t>totalCapacity</t>
+  </si>
+  <si>
+    <t>ParkFeatures</t>
+  </si>
+  <si>
+    <t>operatingYear</t>
+  </si>
+  <si>
+    <t>serviceStartDate</t>
+  </si>
+  <si>
+    <t>serviceEndDate</t>
+  </si>
+  <si>
+    <t>reservationStartDate</t>
+  </si>
+  <si>
+    <t>reservationEndDate</t>
+  </si>
+  <si>
+    <t>offSeasonStartDate</t>
+  </si>
+  <si>
+    <t>offSeasonEndDate</t>
+  </si>
+  <si>
+    <t>ParkOperationDates</t>
+  </si>
+  <si>
+    <t>Contains a summary of operating dates for park features</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Contains a summary of what features exist in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>park or site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, as well as a date range that it is open to public access</t>
+    </r>
+  </si>
+  <si>
+    <t>Total frontcountry capacity; how many individuals it can support</t>
+  </si>
+  <si>
+    <t>Unique ID of the park feature that this record applies to</t>
+  </si>
+  <si>
+    <t>Name of the park feature</t>
+  </si>
+  <si>
+    <t>Indicates that this park operation record is active/inactive</t>
+  </si>
+  <si>
+    <t>Indicates that this park feature record is active/inactive</t>
+  </si>
+  <si>
+    <t>Unique ID of the park facility type</t>
+  </si>
+  <si>
+    <t>Indicates that the feature has reservable facilities/campsites</t>
+  </si>
+  <si>
+    <t>Unique ID of the park accessibility audit unit that this relates to</t>
+  </si>
+  <si>
+    <t>Unique ID of the park record in the Discover Camping system</t>
+  </si>
+  <si>
+    <t>Unique ID of the park facility record in the Discover Camping system</t>
+  </si>
+  <si>
+    <t>Indicates that this park feature is open/closed</t>
+  </si>
+  <si>
+    <t>Indicates the operating year of this date record</t>
+  </si>
+  <si>
+    <t>Indicates the date/time that this feature is open to public access</t>
+  </si>
+  <si>
+    <t>Indicates the date/time that this feature is closed to public access</t>
+  </si>
+  <si>
+    <t>Indicates the date/time that the main camping season starts</t>
+  </si>
+  <si>
+    <t>Indicates the date/time that the main camping season ends</t>
+  </si>
+  <si>
+    <t>Indicates the date/time that the reservable period starts</t>
+  </si>
+  <si>
+    <t>Indicates the date/time that the reservable period ends</t>
+  </si>
+  <si>
+    <t>Indicates the date/time that the off-season starts</t>
+  </si>
+  <si>
+    <t>Indicates the date/time that the off-season ends</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1555,6 +1875,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1760,7 +2085,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1808,7 +2133,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1862,11 +2186,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1874,7 +2197,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" customBuiltin="1"/>
@@ -2196,17 +2522,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9256A4-85B0-483D-ABA5-01E16592AE65}">
-  <dimension ref="A1:J242"/>
+  <dimension ref="A1:J346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="25" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.83203125" style="17" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" style="17" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="17" bestFit="1" customWidth="1"/>
@@ -2225,7 +2551,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>61</v>
@@ -2400,7 +2726,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>57</v>
@@ -2418,7 +2744,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>64</v>
@@ -2436,7 +2762,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>65</v>
@@ -2454,7 +2780,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>56</v>
@@ -2486,7 +2812,7 @@
     </row>
     <row r="15" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="66" t="s">
         <v>169</v>
       </c>
       <c r="C15" s="38" t="s">
@@ -2495,7 +2821,7 @@
       <c r="D15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="45" t="b">
+      <c r="E15" s="44" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="21" t="s">
@@ -2504,20 +2830,20 @@
     </row>
     <row r="16" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="71" t="s">
-        <v>365</v>
+      <c r="B16" s="66" t="s">
+        <v>361</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E16" s="18" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2619,7 +2945,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>51</v>
@@ -2766,7 +3092,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>245</v>
@@ -2943,7 +3269,7 @@
     <row r="40" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="C40" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2954,28 +3280,28 @@
     </row>
     <row r="42" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
       <c r="F42" s="69" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G42" s="70"/>
       <c r="H42" s="70"/>
     </row>
     <row r="47" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="21" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2986,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2997,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3011,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -3070,10 +3396,10 @@
     <row r="59" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>45</v>
@@ -3083,9 +3409,9 @@
     </row>
     <row r="60" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
     </row>
@@ -3126,7 +3452,7 @@
       <c r="A63" s="15"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D63" s="18"/>
       <c r="F63" s="23"/>
@@ -3193,7 +3519,7 @@
       <c r="A70" s="4"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D70" s="18"/>
     </row>
@@ -3201,13 +3527,13 @@
       <c r="A71" s="4"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D71" s="18"/>
     </row>
     <row r="72" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="C72" s="46"/>
+      <c r="C72" s="45"/>
     </row>
     <row r="73" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
@@ -3234,7 +3560,7 @@
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="17" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3278,8 +3604,8 @@
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
       <c r="H78" s="18" t="s">
         <v>26</v>
       </c>
@@ -3398,7 +3724,7 @@
         <v>194</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>60</v>
@@ -3409,7 +3735,7 @@
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
-      <c r="I86" s="45" t="s">
+      <c r="I86" s="44" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3571,7 +3897,7 @@
         <v>200</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>56</v>
@@ -3588,7 +3914,7 @@
         <v>83</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="18"/>
@@ -3602,7 +3928,7 @@
     <row r="99" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="29" t="s">
-        <v>267</v>
+        <v>397</v>
       </c>
       <c r="C99" s="18"/>
       <c r="D99" s="29"/>
@@ -3615,7 +3941,7 @@
     <row r="100" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="29" t="s">
-        <v>268</v>
+        <v>398</v>
       </c>
       <c r="C100" s="18"/>
       <c r="D100" s="29"/>
@@ -3631,7 +3957,7 @@
         <v>248</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="18"/>
@@ -3642,95 +3968,90 @@
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
     </row>
-    <row r="102" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E102" s="18"/>
-      <c r="F102" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="67"/>
+      <c r="B102" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E102" s="23"/>
+      <c r="F102" s="36" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="103" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="D103" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E103" s="20"/>
+      <c r="E103" s="18"/>
       <c r="F103" s="21" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
+    <row r="104" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4"/>
       <c r="B104" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C104" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>272</v>
+      </c>
       <c r="D104" s="20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E104" s="20"/>
-      <c r="F104" s="18"/>
+      <c r="F104" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C105" s="23"/>
-      <c r="D105" s="36"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
+    <row r="105" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6"/>
+      <c r="B105" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C105" s="18"/>
+      <c r="D105" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105" s="20"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C106" s="23"/>
+      <c r="D106" s="36"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="35"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="35"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B109" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C109" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E108" s="23"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="17"/>
-      <c r="B109" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>204</v>
       </c>
       <c r="D109" s="21" t="s">
         <v>47</v>
@@ -3739,17 +4060,20 @@
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
       <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
+      <c r="I109" s="36" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="17"/>
       <c r="B110" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="36"/>
@@ -3759,13 +4083,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" s="21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="36"/>
@@ -3775,28 +4099,26 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="36"/>
       <c r="G112" s="36"/>
       <c r="H112" s="36"/>
-      <c r="I112" s="36" t="s">
-        <v>62</v>
-      </c>
+      <c r="I112" s="36"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>46</v>
@@ -3811,34 +4133,40 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B114" s="21" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E114" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="E114" s="23"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="21" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E115" s="19"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D116" s="21" t="s">
         <v>48</v>
@@ -3847,804 +4175,804 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E117" s="19"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B118" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="C118" s="21"/>
+        <v>180</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>180</v>
+      </c>
       <c r="D118" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="39" t="s">
-        <v>79</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E118" s="19"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B119" s="21" t="s">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="C119" s="21"/>
       <c r="D119" s="21" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E119" s="23"/>
-      <c r="F119" s="39" t="s">
+      <c r="F119" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="67"/>
+      <c r="B120" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C120" s="21"/>
+      <c r="D120" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E120" s="23"/>
+      <c r="F120" s="36" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E121" s="23"/>
+      <c r="F121" s="36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B120" s="21"/>
-      <c r="C120" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C121" s="46"/>
-      <c r="D121" s="57"/>
-    </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
+      <c r="B122" s="21"/>
+      <c r="C122" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C123" s="45"/>
+      <c r="D123" s="56"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="35"/>
-      <c r="H122" s="17" t="s">
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="35"/>
+      <c r="H124" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I122" s="67" t="s">
+      <c r="I124" s="68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="56"/>
-      <c r="B123" s="21" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="55"/>
+      <c r="B125" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C125" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D123" s="21" t="s">
+      <c r="D125" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="35"/>
-      <c r="I123" s="67"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B124" s="21" t="s">
+      <c r="E125" s="35"/>
+      <c r="I125" s="68"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C126" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D124" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E124" s="19"/>
-      <c r="I124" s="67"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="21" t="s">
+      <c r="D126" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E126" s="19"/>
+      <c r="I126" s="68"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C127" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D127" s="21"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I127" s="68"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="21"/>
+      <c r="C128" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128" s="19"/>
+      <c r="I128" s="68"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I129" s="68"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E130" s="35"/>
+      <c r="H130" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" s="68"/>
+    </row>
+    <row r="131" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B131" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D125" s="21"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I125" s="67"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B126" s="21"/>
-      <c r="C126" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="E126" s="19"/>
-      <c r="I126" s="67"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I127" s="67"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E128" s="35"/>
-      <c r="H128" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I128" s="67"/>
-    </row>
-    <row r="129" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E129" s="19"/>
-      <c r="I129" s="67"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B130" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C130" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D130" s="21"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I130" s="67"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B131" s="21"/>
-      <c r="C131" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="D131" s="21"/>
+      <c r="D131" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="E131" s="19"/>
-      <c r="I131" s="67"/>
+      <c r="I131" s="68"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B132" s="21" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="D132" s="21"/>
       <c r="E132" s="19"/>
-      <c r="I132" s="67"/>
+      <c r="F132" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I132" s="68"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B133" s="55"/>
-      <c r="C133" s="55"/>
-      <c r="D133" s="55"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D133" s="21"/>
       <c r="E133" s="19"/>
-      <c r="I133" s="67"/>
+      <c r="I133" s="68"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H134" s="17" t="s">
+      <c r="B134" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D134" s="21"/>
+      <c r="E134" s="19"/>
+      <c r="I134" s="68"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B135" s="54"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="19"/>
+      <c r="I135" s="68"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H136" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I134" s="67"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
+      <c r="I136" s="68"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B135" s="25" t="s">
+      <c r="B137" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25" t="s">
+      <c r="C137" s="25"/>
+      <c r="D137" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E135" s="35"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B136" s="38" t="s">
+      <c r="E137" s="35"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B138" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="C136" s="38"/>
-      <c r="D136" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E136" s="19"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
+      <c r="C138" s="38"/>
+      <c r="D138" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E138" s="19"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="17" t="s">
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H138" s="17" t="s">
+      <c r="H140" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J138" s="40" t="s">
+      <c r="J140" s="39" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B139" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D139" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E139" s="19"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B140" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C140" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E140" s="19"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E141" s="19"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B142" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E142" s="19"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B143" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C141" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="D141" s="21"/>
-      <c r="E141" s="19"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="11" t="s">
+      <c r="C143" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D143" s="21"/>
+      <c r="E143" s="19"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="17" t="s">
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H143" s="17" t="s">
+      <c r="H145" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I143" s="23" t="s">
+      <c r="I145" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="J143" s="22" t="s">
+      <c r="J145" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B144" s="21" t="s">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B146" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C144" s="21" t="s">
+      <c r="C146" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="D144" s="21" t="s">
+      <c r="D146" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E144" s="19"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B145" s="21" t="s">
+      <c r="E146" s="19"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B147" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C147" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D145" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E145" s="19"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B146" s="21" t="s">
+      <c r="D147" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E147" s="19"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B148" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="C148" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D146" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E146" s="19"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B147" s="21" t="s">
+      <c r="D148" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E148" s="19"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B149" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21" t="s">
+      <c r="C149" s="21"/>
+      <c r="D149" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E147" s="19"/>
-      <c r="F147" s="17" t="s">
+      <c r="E149" s="19"/>
+      <c r="F149" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B148" s="21" t="s">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B150" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E148" s="19"/>
-      <c r="F148" s="17" t="s">
+      <c r="C150" s="21"/>
+      <c r="D150" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E150" s="19"/>
+      <c r="F150" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B149" s="21"/>
-      <c r="C149" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="E149" s="19"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="11" t="s">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B151" s="21"/>
+      <c r="C151" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E151" s="19"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="35"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="10"/>
-      <c r="B152" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D152" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E152" s="19"/>
-      <c r="F152" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="10"/>
-      <c r="B153" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D153" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E153" s="19"/>
-      <c r="F153" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="35"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
       <c r="B154" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D154" s="18" t="s">
-        <v>47</v>
+        <v>217</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="E154" s="19"/>
-      <c r="F154" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F154" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
-      <c r="B155" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>220</v>
+      <c r="B155" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
-      <c r="B156" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>221</v>
+      <c r="B156" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E156" s="19"/>
       <c r="F156" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
       <c r="B157" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
       <c r="B158" s="18" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="B159" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E159" s="19"/>
+      <c r="F159" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="10"/>
+      <c r="B160" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E160" s="19"/>
+      <c r="F160" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="10"/>
+      <c r="B161" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C161" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D161" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F159" s="18" t="s">
+      <c r="F161" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C160" s="46"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="11" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C162" s="45"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B161" s="25"/>
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="35"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="10"/>
-      <c r="B162" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D162" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E162" s="19"/>
-      <c r="F162" s="25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="10"/>
-      <c r="B163" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C163" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E163" s="19"/>
-      <c r="F163" s="18" t="s">
-        <v>263</v>
-      </c>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="35"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E164" s="19"/>
-      <c r="F164" s="18" t="s">
-        <v>95</v>
+      <c r="F164" s="25" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="B165" s="21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D165" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E165" s="19"/>
       <c r="F165" s="18" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="21" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D166" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E166" s="19"/>
       <c r="F166" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E167" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="E167" s="19"/>
       <c r="F167" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E168" s="19"/>
       <c r="F168" s="18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="21" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E169" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="E169" s="24"/>
       <c r="F169" s="18" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C170" s="21" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E170" s="19"/>
       <c r="F170" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="10"/>
+      <c r="B171" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E171" s="19"/>
+      <c r="F171" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="10"/>
+      <c r="B172" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E172" s="19"/>
+      <c r="F172" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B171" s="19"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="11" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B172" s="25" t="s">
+      <c r="B174" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C172" s="25"/>
-      <c r="D172" s="25" t="s">
+      <c r="C174" s="25"/>
+      <c r="D174" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E172" s="35"/>
-      <c r="F172" s="25" t="s">
+      <c r="E174" s="35"/>
+      <c r="F174" s="25" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B173" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C173" s="21"/>
-      <c r="D173" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E173" s="19"/>
-      <c r="F173" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B174" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="C174" s="29"/>
-      <c r="D174" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="E174" s="19"/>
-      <c r="F174" s="18" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C175" s="21"/>
-      <c r="D175" s="18" t="s">
+      <c r="D175" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E175" s="19"/>
       <c r="F175" s="18" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B176" s="29" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
+      <c r="D176" s="29" t="s">
+        <v>256</v>
+      </c>
       <c r="E176" s="19"/>
-      <c r="F176" s="18"/>
+      <c r="F176" s="18" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B177" s="21" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="C177" s="21"/>
       <c r="D177" s="18" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E177" s="19"/>
       <c r="F177" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B178" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="18"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B179" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C179" s="21"/>
+      <c r="D179" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E179" s="19"/>
+      <c r="F179" s="18" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B178" s="21" t="s">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B180" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C178" s="21"/>
-      <c r="D178" s="21" t="s">
+      <c r="C180" s="21"/>
+      <c r="D180" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E178" s="19"/>
-      <c r="F178" s="18" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="11" t="s">
+      <c r="E180" s="19"/>
+      <c r="F180" s="18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B180" s="25" t="s">
+      <c r="B182" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C180" s="25"/>
-      <c r="D180" s="25" t="s">
+      <c r="C182" s="25"/>
+      <c r="D182" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E180" s="35"/>
-      <c r="F180" s="25" t="s">
+      <c r="E182" s="35"/>
+      <c r="F182" s="25" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B181" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C181" s="21"/>
-      <c r="D181" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E181" s="19"/>
-      <c r="F181" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B182" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="E182" s="19"/>
-      <c r="F182" s="18" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B183" s="21" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C183" s="21"/>
       <c r="D183" s="18" t="s">
@@ -4652,163 +4980,177 @@
       </c>
       <c r="E183" s="19"/>
       <c r="F183" s="18" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B184" s="29" t="s">
-        <v>353</v>
+        <v>257</v>
       </c>
       <c r="C184" s="29"/>
-      <c r="D184" s="29"/>
+      <c r="D184" s="29" t="s">
+        <v>258</v>
+      </c>
       <c r="E184" s="19"/>
-      <c r="F184" s="18"/>
+      <c r="F184" s="18" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B185" s="21" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="C185" s="21"/>
       <c r="D185" s="18" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E185" s="19"/>
       <c r="F185" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B186" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C186" s="29"/>
+      <c r="D186" s="29"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="18"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B187" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C187" s="21"/>
+      <c r="D187" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E187" s="19"/>
+      <c r="F187" s="18" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B186" s="21" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B188" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C186" s="21"/>
-      <c r="D186" s="21" t="s">
+      <c r="C188" s="21"/>
+      <c r="D188" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E186" s="19"/>
-      <c r="F186" s="18" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="11" t="s">
+      <c r="E188" s="19"/>
+      <c r="F188" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B188" s="25" t="s">
+      <c r="B190" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C188" s="25"/>
-      <c r="D188" s="25" t="s">
+      <c r="C190" s="25"/>
+      <c r="D190" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E188" s="35"/>
-      <c r="F188" s="25" t="s">
+      <c r="E190" s="35"/>
+      <c r="F190" s="25" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B189" s="21" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B191" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C189" s="21"/>
-      <c r="D189" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E189" s="23"/>
-      <c r="F189" s="18" t="s">
+      <c r="C191" s="21"/>
+      <c r="D191" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E191" s="23"/>
+      <c r="F191" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B190" s="21" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B192" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E190" s="23"/>
-      <c r="F190" s="18" t="s">
+      <c r="C192" s="21"/>
+      <c r="D192" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E192" s="23"/>
+      <c r="F192" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="23"/>
-    </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193" s="11" t="s">
+      <c r="B193" s="21"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="23"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B193" s="25" t="s">
+      <c r="B195" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C193" s="25"/>
-      <c r="D193" s="25"/>
-      <c r="E193" s="35"/>
-      <c r="F193" s="17" t="s">
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="35"/>
+      <c r="F195" s="17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B194" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="C194" s="21"/>
-      <c r="D194" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E194" s="23"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B195" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C195" s="21"/>
-      <c r="D195" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E195" s="23"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B196" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C196" s="21"/>
       <c r="D196" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E196" s="23"/>
-      <c r="F196" s="17" t="s">
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B197" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C197" s="21"/>
+      <c r="D197" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E197" s="23"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B198" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E198" s="23"/>
+      <c r="F198" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B197" s="29" t="s">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B199" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C197" s="29"/>
-      <c r="D197" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E197" s="23"/>
-      <c r="F197" s="17" t="s">
+      <c r="C199" s="29"/>
+      <c r="D199" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E199" s="23"/>
+      <c r="F199" s="17" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B198" s="21"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="23"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B199" s="21"/>
-      <c r="C199" s="21"/>
-      <c r="D199" s="21"/>
-      <c r="E199" s="23"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B200" s="21"/>
@@ -4816,333 +5158,327 @@
       <c r="D200" s="21"/>
       <c r="E200" s="23"/>
     </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="23"/>
+    </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202" s="11" t="s">
+      <c r="B202" s="21"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="23"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B202" s="25"/>
-      <c r="C202" s="25"/>
-      <c r="D202" s="25"/>
-      <c r="E202" s="35"/>
-      <c r="I202" s="17" t="s">
+      <c r="B204" s="25"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="25"/>
+      <c r="E204" s="35"/>
+      <c r="I204" s="17" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B203" s="21"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="21"/>
-      <c r="E203" s="23"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B204" s="21"/>
-      <c r="C204" s="21"/>
-      <c r="D204" s="21"/>
-      <c r="E204" s="23"/>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B205" s="21"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="23"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A206" s="11" t="s">
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="23"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B206" s="25" t="s">
+      <c r="B208" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C206" s="25"/>
-      <c r="D206" s="25" t="s">
+      <c r="C208" s="25"/>
+      <c r="D208" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E206" s="35"/>
-      <c r="F206" s="17" t="s">
+      <c r="E208" s="35"/>
+      <c r="F208" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B207" s="21" t="s">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B209" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C207" s="21"/>
-      <c r="D207" s="21" t="s">
+      <c r="C209" s="21"/>
+      <c r="D209" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E207" s="23"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B208" s="21" t="s">
+      <c r="E209" s="23"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B210" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C208" s="21"/>
-      <c r="D208" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E208" s="23"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B209" s="29" t="s">
+      <c r="C210" s="21"/>
+      <c r="D210" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E210" s="23"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B211" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="C209" s="29"/>
-      <c r="D209" s="29" t="s">
+      <c r="C211" s="29"/>
+      <c r="D211" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E209" s="24"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B210" s="18" t="s">
+      <c r="E211" s="24"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B212" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C210" s="18"/>
-      <c r="D210" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E210" s="23"/>
-      <c r="F210" s="17" t="s">
+      <c r="C212" s="18"/>
+      <c r="D212" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E212" s="23"/>
+      <c r="F212" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B211" s="21" t="s">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B213" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C211" s="21"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="17" t="s">
+      <c r="C213" s="21"/>
+      <c r="D213" s="18"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" s="11" t="s">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B213" s="25" t="s">
+      <c r="B215" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C213" s="25"/>
-      <c r="D213" s="25" t="s">
+      <c r="C215" s="25"/>
+      <c r="D215" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E213" s="35"/>
-      <c r="F213" s="17" t="s">
+      <c r="E215" s="35"/>
+      <c r="F215" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="I213" s="23" t="s">
+      <c r="I215" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B214" s="21" t="s">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B216" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="C214" s="21"/>
-      <c r="D214" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E214" s="23"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B215" s="21" t="s">
+      <c r="C216" s="21"/>
+      <c r="D216" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E216" s="23"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B217" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C215" s="21"/>
-      <c r="D215" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E215" s="23"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B216" s="29" t="s">
+      <c r="C217" s="21"/>
+      <c r="D217" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E217" s="23"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B218" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="C216" s="29"/>
-      <c r="D216" s="29" t="s">
+      <c r="C218" s="29"/>
+      <c r="D218" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E216" s="24"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B217" s="18" t="s">
+      <c r="E218" s="24"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B219" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C217" s="18"/>
-      <c r="D217" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E217" s="23"/>
-      <c r="F217" s="17" t="s">
+      <c r="C219" s="18"/>
+      <c r="D219" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E219" s="23"/>
+      <c r="F219" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B218" s="21" t="s">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B220" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C218" s="21"/>
-      <c r="D218" s="18"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="17" t="s">
+      <c r="C220" s="21"/>
+      <c r="D220" s="18"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" s="11" t="s">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B220" s="25" t="s">
+      <c r="B222" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="C220" s="25"/>
-      <c r="D220" s="25" t="s">
+      <c r="C222" s="25"/>
+      <c r="D222" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E220" s="35"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B221" s="21" t="s">
+      <c r="E222" s="35"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B223" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C221" s="21"/>
-      <c r="D221" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E221" s="23"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B222" s="21" t="s">
+      <c r="C223" s="21"/>
+      <c r="D223" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E223" s="23"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B224" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C222" s="21"/>
-      <c r="D222" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E222" s="23"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224" s="17"/>
-      <c r="B224" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="C224" s="41"/>
-      <c r="D224" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="E224" s="41"/>
-      <c r="F224" s="41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A225" s="17"/>
-      <c r="B225" s="42">
-        <v>1</v>
-      </c>
-      <c r="C225" s="42"/>
-      <c r="D225" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E225" s="43"/>
-      <c r="F225" s="43" t="s">
-        <v>137</v>
-      </c>
+      <c r="C224" s="21"/>
+      <c r="D224" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E224" s="23"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="17"/>
-      <c r="B226" s="42">
-        <v>2</v>
-      </c>
-      <c r="C226" s="42"/>
-      <c r="D226" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="E226" s="43"/>
-      <c r="F226" s="43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="B226" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C226" s="40"/>
+      <c r="D226" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="E226" s="40"/>
+      <c r="F226" s="40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A227" s="17"/>
-      <c r="B227" s="42">
-        <v>3</v>
-      </c>
-      <c r="C227" s="42"/>
-      <c r="D227" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E227" s="43"/>
-      <c r="F227" s="43" t="s">
-        <v>141</v>
+      <c r="B227" s="41">
+        <v>1</v>
+      </c>
+      <c r="C227" s="41"/>
+      <c r="D227" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E227" s="42"/>
+      <c r="F227" s="42" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="17"/>
-      <c r="B228" s="42">
-        <v>4</v>
-      </c>
-      <c r="C228" s="42"/>
-      <c r="D228" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E228" s="43"/>
-      <c r="F228" s="43" t="s">
-        <v>143</v>
+      <c r="B228" s="41">
+        <v>2</v>
+      </c>
+      <c r="C228" s="41"/>
+      <c r="D228" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E228" s="42"/>
+      <c r="F228" s="42" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A229" s="17"/>
-      <c r="B229" s="42">
+      <c r="B229" s="41">
+        <v>3</v>
+      </c>
+      <c r="C229" s="41"/>
+      <c r="D229" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E229" s="42"/>
+      <c r="F229" s="42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="17"/>
+      <c r="B230" s="41">
+        <v>4</v>
+      </c>
+      <c r="C230" s="41"/>
+      <c r="D230" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E230" s="42"/>
+      <c r="F230" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A231" s="17"/>
+      <c r="B231" s="41">
         <v>5</v>
       </c>
-      <c r="C229" s="42"/>
-      <c r="D229" s="43" t="s">
+      <c r="C231" s="41"/>
+      <c r="D231" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E229" s="43"/>
-      <c r="F229" s="43" t="s">
+      <c r="E231" s="42"/>
+      <c r="F231" s="42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A230" s="17"/>
-      <c r="B230" s="42">
+    <row r="232" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A232" s="17"/>
+      <c r="B232" s="41">
         <v>6</v>
       </c>
-      <c r="C230" s="42"/>
-      <c r="D230" s="43" t="s">
+      <c r="C232" s="41"/>
+      <c r="D232" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="E230" s="43"/>
-      <c r="F230" s="43" t="s">
+      <c r="E232" s="42"/>
+      <c r="F232" s="42" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B232" s="66"/>
-      <c r="C232" s="66"/>
-      <c r="D232" s="66"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B233" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C233" s="18"/>
-      <c r="D233" s="18"/>
-      <c r="E233" s="18"/>
-      <c r="F233" s="18"/>
-    </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B234" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C234" s="18"/>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
-      <c r="F234" s="18"/>
+      <c r="A234" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B234" s="65"/>
+      <c r="C234" s="65"/>
+      <c r="D234" s="65"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B235" s="21" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C235" s="18"/>
       <c r="D235" s="18"/>
@@ -5151,7 +5487,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B236" s="21" t="s">
-        <v>355</v>
+        <v>203</v>
       </c>
       <c r="C236" s="18"/>
       <c r="D236" s="18"/>
@@ -5160,7 +5496,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B237" s="21" t="s">
-        <v>356</v>
+        <v>168</v>
       </c>
       <c r="C237" s="18"/>
       <c r="D237" s="18"/>
@@ -5169,7 +5505,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B238" s="21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C238" s="18"/>
       <c r="D238" s="18"/>
@@ -5178,7 +5514,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B239" s="21" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C239" s="18"/>
       <c r="D239" s="18"/>
@@ -5187,38 +5523,1122 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C240" s="18"/>
       <c r="D240" s="18"/>
       <c r="E240" s="18"/>
       <c r="F240" s="18"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B241" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C241" s="18"/>
       <c r="D241" s="18"/>
       <c r="E241" s="18"/>
       <c r="F241" s="18"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B242" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C242" s="18"/>
       <c r="D242" s="18"/>
       <c r="E242" s="18"/>
       <c r="F242" s="18"/>
     </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B243" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C243" s="18"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="18"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B244" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" s="18"/>
+      <c r="D244" s="18"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="18"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B246" s="25"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="25"/>
+      <c r="F246" s="17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B247" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F247" s="17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="72"/>
+      <c r="B248" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D248" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F248" s="36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B249" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F249" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B250" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F250" s="17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B251" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F251" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B252" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F252" s="17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B253" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D253" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F253" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B254" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F254" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B255" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D255" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F255" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B256" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F256" s="17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B257" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F257" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B258" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F258" s="17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B259" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F259" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B260" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F260" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B261" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F261" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B262" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F262" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B263" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F263" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B264" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F264" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B265" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D265" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F265" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B266" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D266" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F266" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B267" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D267" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F267" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B268" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D268" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F268" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B269" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D269" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F269" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B270" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D270" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F270" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B271" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="D271" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F271" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B272" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D272" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F272" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B273" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D273" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F273" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B274" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="D274" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F274" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B275" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D275" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F275" s="17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B276" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D276" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F276" s="17" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B277" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="D277" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F277" s="17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B278" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F278" s="17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B279" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D279" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F279" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B280" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D280" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F280" s="17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B281" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F281" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B282" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F282" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B283" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F283" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B284" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F284" s="17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B285" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D285" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F285" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B287" s="25"/>
+      <c r="C287" s="25"/>
+      <c r="D287" s="25"/>
+      <c r="F287" s="17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B288" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F288" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B289" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="D289" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F289" s="17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B290" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D290" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F290" s="17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B291" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D291" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F291" s="36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B292" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D292" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F292" s="23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B293" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="D293" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F293" s="23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B294" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D294" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F294" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B295" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="D295" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F295" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B296" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="D296" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F296" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B297" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="D297" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F297" s="17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B298" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="D298" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F298" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B299" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D299" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F299" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" s="17"/>
+      <c r="B300" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D300" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F300" s="17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="17"/>
+      <c r="B301" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="D301" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F301" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="17"/>
+      <c r="B302" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D302" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F302" s="17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="17"/>
+      <c r="B303" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D303" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F303" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" s="17"/>
+      <c r="B304" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D304" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F304" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" s="17"/>
+      <c r="B305" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="D305" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F305" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" s="17"/>
+      <c r="B306" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D306" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F306" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" s="17"/>
+      <c r="B307" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D307" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F307" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" s="17"/>
+      <c r="B308" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="D308" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F308" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" s="17"/>
+      <c r="B309" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D309" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F309" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" s="17"/>
+      <c r="B310" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D310" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F310" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" s="17"/>
+      <c r="B311" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D311" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F311" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" s="17"/>
+      <c r="B312" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D312" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F312" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" s="17"/>
+      <c r="B313" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D313" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F313" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" s="17"/>
+      <c r="B314" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D314" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F314" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" s="17"/>
+      <c r="B315" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="D315" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F315" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" s="17"/>
+      <c r="B316" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D316" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F316" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" s="17"/>
+      <c r="B317" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D317" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F317" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" s="17"/>
+      <c r="B318" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="D318" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F318" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" s="17"/>
+      <c r="B319" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D319" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F319" s="17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" s="17"/>
+      <c r="B320" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D320" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F320" s="17" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="17"/>
+      <c r="B321" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="D321" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F321" s="17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" s="17"/>
+      <c r="B322" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D322" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F322" s="17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" s="17"/>
+      <c r="B323" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D323" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F323" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B324" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D324" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F324" s="17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B325" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D325" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F325" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B326" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="D326" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F326" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B327" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D327" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F327" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B328" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D328" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F328" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B330" s="25"/>
+      <c r="C330" s="25"/>
+      <c r="D330" s="25"/>
+      <c r="F330" s="17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B331" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="F331" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B332" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F332" s="23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B333" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="F333" s="23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B334" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F334" s="23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B335" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F335" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B336" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="F336" s="23" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B337" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F337" s="23" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B338" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="F338" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B339" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="F339" s="23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B340" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="F340" s="23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B341" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="F341" s="23" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B342" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="F342" s="17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B343" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="F343" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B344" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="F344" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B345" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="F345" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B346" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F346" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I122:I134"/>
+    <mergeCell ref="I124:I136"/>
     <mergeCell ref="F42:H42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J138" r:id="rId1" xr:uid="{C542003A-DE46-4D98-A11B-9CC195E7F11A}"/>
+    <hyperlink ref="J140" r:id="rId1" xr:uid="{C542003A-DE46-4D98-A11B-9CC195E7F11A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId2"/>
@@ -5230,8 +6650,8 @@
   <dimension ref="A1:N240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5239,1973 +6659,1973 @@
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="62" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
     <col min="13" max="13" width="22.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="53" t="s">
+      <c r="A1" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
       <c r="L1" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>344</v>
+      <c r="A2" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>342</v>
       </c>
       <c r="L2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M2" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="M2" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>47</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="65" t="s">
+      <c r="B4" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="64" t="s">
         <v>131</v>
       </c>
       <c r="N4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="64" t="s">
         <v>134</v>
       </c>
       <c r="N5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="L7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="M6" s="65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="L7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M7" s="65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>344</v>
-      </c>
-      <c r="M8" s="65" t="s">
+      <c r="D8" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="M8" s="64" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>47</v>
       </c>
       <c r="L9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>217</v>
       </c>
       <c r="L10" t="s">
-        <v>286</v>
-      </c>
-      <c r="M10" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="M10" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="60" t="s">
+      <c r="B11" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>218</v>
       </c>
       <c r="L11" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="65" t="s">
+      <c r="M11" s="64" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="60" t="s">
+      <c r="B12" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>219</v>
       </c>
       <c r="L12" t="s">
-        <v>287</v>
-      </c>
-      <c r="M12" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="M12" s="64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="61" t="s">
+      <c r="B13" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>221</v>
       </c>
       <c r="L14" t="s">
         <v>50</v>
       </c>
-      <c r="M14" s="65" t="s">
+      <c r="M14" s="64" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="60" t="s">
         <v>222</v>
       </c>
       <c r="L15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="61" t="s">
+      <c r="B16" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="60" t="s">
         <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>283</v>
-      </c>
-      <c r="M16" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="M16" s="64" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="60" t="s">
         <v>247</v>
       </c>
       <c r="L17" t="s">
-        <v>299</v>
-      </c>
-      <c r="M17" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="M17" s="64" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="L18" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="M18" s="64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="48"/>
+      <c r="L19" t="s">
+        <v>296</v>
+      </c>
+      <c r="M19" s="64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="53" t="s">
         <v>281</v>
-      </c>
-      <c r="L18" t="s">
-        <v>282</v>
-      </c>
-      <c r="M18" s="65" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="L19" t="s">
-        <v>298</v>
-      </c>
-      <c r="M19" s="65" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
-        <v>283</v>
       </c>
       <c r="L20" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="65" t="s">
+      <c r="M20" s="64" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="47" t="s">
         <v>47</v>
       </c>
       <c r="L21" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="65" t="s">
+      <c r="M21" s="64" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="60" t="s">
         <v>259</v>
       </c>
       <c r="L22" t="s">
+        <v>308</v>
+      </c>
+      <c r="M22" s="64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="L23" t="s">
+        <v>303</v>
+      </c>
+      <c r="M23" s="64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>306</v>
+      </c>
+      <c r="M24" s="64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="57"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" s="64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="57"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="M26" s="64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="57"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="L28" t="s">
+        <v>333</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="48"/>
+      <c r="L29" t="s">
+        <v>331</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="48"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="53" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="48"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="48"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="53" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="48"/>
+      <c r="M67" s="10"/>
+    </row>
+    <row r="68" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="53" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="M70"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="M71" s="10"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B72" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="48"/>
+    </row>
+    <row r="75" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="M75" s="10"/>
+    </row>
+    <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B76" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M78" s="10"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="B81" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="B82" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="M82" s="10"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="48"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="53" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B86" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="M89" s="10"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="48"/>
+    </row>
+    <row r="92" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="53" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="B97" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B98" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="M98" s="10"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="48"/>
+    </row>
+    <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B101" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="48"/>
+    </row>
+    <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B106" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B107" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M108" s="10"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B110" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="48"/>
+    </row>
+    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M115" s="10"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="M22" s="65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="B116" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B117" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="B118" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B119" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="48"/>
+    </row>
+    <row r="121" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="53" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B122" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M122" s="10"/>
+    </row>
+    <row r="123" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="B123" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B124" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" s="47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B126" s="47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B127" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="M127" s="10"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="B128" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="71"/>
+      <c r="B129" s="50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="71"/>
+      <c r="B130" s="50" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B131" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="B132" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B133" s="47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M136" s="10"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137" s="47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="71"/>
+      <c r="B138" s="49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" s="47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B140" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="M140" s="10"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B141" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B142" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="B144" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="B145" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="M23" s="65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="L24" t="s">
-        <v>308</v>
-      </c>
-      <c r="M24" s="65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="M25" s="65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="61" t="s">
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B146" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B147" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="M147" s="10"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="B148" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B150" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" s="48"/>
+    </row>
+    <row r="152" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="53" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B153" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="M154" s="10"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B155" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="M26" s="65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="L27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="B156" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="B158" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="M158"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B159" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="M159"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M160"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="M161"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B162" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="M162"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="M163"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M164"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B165" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B166" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B168" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B169" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B174" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B175" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B176" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B179" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B180" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B181" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B182" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B183" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="B184" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="B185" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="B186" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="B187" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="B188" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B189" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B190" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="48"/>
+    </row>
+    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B193" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="B194" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="B196" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="B197" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B198" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="48"/>
+    </row>
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B201" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A202" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="B202" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B203" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="B204" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="B205" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B206" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="48"/>
+    </row>
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A209" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B209" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B210" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B211" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B212" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B213" s="47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B214" s="47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B215" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B216" s="47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B217" s="47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B218" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A219" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="B219" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B220" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B221" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="48"/>
+    </row>
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A223" s="53" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A224" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B224" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="B225" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B226" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="48"/>
+    </row>
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A228" s="53" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A229" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B229" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A230" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="B230" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="L29" t="s">
-        <v>333</v>
-      </c>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="L30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
+      <c r="B231" s="49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B232" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="48"/>
+    </row>
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A234" s="53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A235" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B235" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B236" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B237" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="B238" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B239" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="B37" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
-    </row>
-    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="M51" s="6"/>
-    </row>
-    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="B53" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="M53" s="10"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B54" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="49"/>
-    </row>
-    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="54" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B57" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="B58" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="B59" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B60" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="B61" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="B62" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="B65" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B66" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="49"/>
-      <c r="M67" s="10"/>
-    </row>
-    <row r="68" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="54" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B69" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="B70" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="M70"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="B71" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="M71" s="10"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="B72" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B73" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="49"/>
-    </row>
-    <row r="75" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="M75" s="10"/>
-    </row>
-    <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B76" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="B77" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="B78" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M78" s="10"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="B79" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="B80" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="B81" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="B82" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="M82" s="10"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B83" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="49"/>
-    </row>
-    <row r="85" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="54" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B86" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="B87" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="B88" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="B89" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="M89" s="10"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B90" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="49"/>
-    </row>
-    <row r="92" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="54" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B93" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="B94" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="B95" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="B96" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="B97" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B98" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="M98" s="10"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="49"/>
-    </row>
-    <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="54" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B101" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="B102" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B103" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="49"/>
-    </row>
-    <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B106" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M108" s="10"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="B109" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B110" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="49"/>
-    </row>
-    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="54" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B113" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="B114" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="B115" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M115" s="10"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="B116" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="B117" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="B118" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A119" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B119" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" s="49"/>
-    </row>
-    <row r="121" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="54" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B122" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M122" s="10"/>
-    </row>
-    <row r="123" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="B123" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="B124" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="B125" s="48" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="B126" s="48" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="B127" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="M127" s="10"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="B128" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="68"/>
-      <c r="B129" s="51" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="68"/>
-      <c r="B130" s="51" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="B131" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A132" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="B132" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="B133" s="48" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B134" s="48" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="B135" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A136" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B136" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M136" s="10"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="B137" s="48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="68"/>
-      <c r="B138" s="50" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A139" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B139" s="48" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="B140" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="M140" s="10"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A141" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="B141" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="B142" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A143" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="B143" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A144" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="B144" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A145" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="B145" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A146" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="B146" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A147" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="B147" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="M147" s="10"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A148" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="B148" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A149" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="B149" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A150" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B150" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A151" s="49"/>
-    </row>
-    <row r="152" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="54" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B153" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A154" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="B154" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="M154" s="10"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A155" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B155" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A156" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B156" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A157" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="B157" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A158" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="B158" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="M158"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A159" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B159" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="M159"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A160" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="B160" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M160"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A161" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B161" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="M161"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A162" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="B162" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="M162"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A163" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="B163" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="M163"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A164" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B164" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M164"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A165" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="B165" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A166" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="B166" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A167" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="B167" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A168" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="B168" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A169" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B169" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A170" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B170" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A171" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B171" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A172" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B172" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A173" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="B173" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A174" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="B174" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A175" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="B175" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A176" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B176" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="B177" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="B178" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="B179" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="B180" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="B181" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="B182" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="B183" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="B184" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="B185" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="B186" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="B187" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="B188" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="B189" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B190" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="49"/>
-    </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B193" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="B194" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="B195" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="B196" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="B197" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B198" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="49"/>
-    </row>
-    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B201" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="B202" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="B203" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="B204" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="B205" s="50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B206" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="49"/>
-    </row>
-    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A208" s="54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B209" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="B210" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="B211" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="B212" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="B213" s="48" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B214" s="48" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B215" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B216" s="48" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="B217" s="48" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="B218" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="B219" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="B220" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B221" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="49"/>
-    </row>
-    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A223" s="54" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A224" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B224" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="B225" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B226" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="49"/>
-    </row>
-    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A228" s="54" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B229" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="B230" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="B231" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B232" s="48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="49"/>
-    </row>
-    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A234" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A235" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B235" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="B236" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="B237" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="B238" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B239" s="48" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="49"/>
+      <c r="A240" s="48"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:M198">

--- a/docs/BC Parks CMS Data Model.xlsx
+++ b/docs/BC Parks CMS Data Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rofiddle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF999796-8CFD-4F11-925D-6DA14C516D60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5F4106-D3EE-4866-83D5-9C5D13FDE2E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
+    <workbookView xWindow="-21825" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{A33082D8-1C98-4870-8924-9924FABEACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="BCParks" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="475">
   <si>
     <t>Table</t>
   </si>
@@ -1694,12 +1694,21 @@
   <si>
     <t>Indicates the date/time that the off-season ends</t>
   </si>
+  <si>
+    <t>ParkFees</t>
+  </si>
+  <si>
+    <t>Relates to a park activity or facility</t>
+  </si>
+  <si>
+    <t>Link to ParkFeatures</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1875,11 +1884,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2085,7 +2089,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2186,8 +2190,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2200,7 +2204,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" customBuiltin="1"/>
@@ -2522,11 +2525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9256A4-85B0-483D-ABA5-01E16592AE65}">
-  <dimension ref="A1:J346"/>
+  <dimension ref="A1:J353"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C264" sqref="C264"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2812,7 +2815,7 @@
     </row>
     <row r="15" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="38" t="s">
         <v>169</v>
       </c>
       <c r="C15" s="38" t="s">
@@ -2821,7 +2824,7 @@
       <c r="D15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="44" t="b">
+      <c r="E15" s="21" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="21" t="s">
@@ -2830,7 +2833,7 @@
     </row>
     <row r="16" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="38" t="s">
         <v>361</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -3969,7 +3972,7 @@
       <c r="I101" s="18"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="67"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="29" t="s">
         <v>399</v>
       </c>
@@ -3982,95 +3985,88 @@
         <v>401</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E103" s="18"/>
-      <c r="F103" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="66"/>
+      <c r="B103" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="E103" s="23"/>
+      <c r="F103" s="36"/>
     </row>
     <row r="104" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D104" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E104" s="20"/>
+      <c r="E104" s="18"/>
       <c r="F104" s="21" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
+    <row r="105" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4"/>
       <c r="B105" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C105" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>272</v>
+      </c>
       <c r="D105" s="20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E105" s="20"/>
-      <c r="F105" s="18"/>
+      <c r="F105" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="G105" s="18"/>
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C106" s="23"/>
-      <c r="D106" s="36"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
+    <row r="106" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6"/>
+      <c r="B106" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C106" s="18"/>
+      <c r="D106" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106" s="20"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C107" s="23"/>
+      <c r="D107" s="36"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="35"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="35"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C110" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>204</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>47</v>
@@ -4079,17 +4075,20 @@
       <c r="F110" s="36"/>
       <c r="G110" s="36"/>
       <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
+      <c r="I110" s="36" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="17"/>
       <c r="B111" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="36"/>
@@ -4099,13 +4098,13 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" s="21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="36"/>
@@ -4115,28 +4114,26 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E113" s="23"/>
       <c r="F113" s="36"/>
       <c r="G113" s="36"/>
       <c r="H113" s="36"/>
-      <c r="I113" s="36" t="s">
-        <v>62</v>
-      </c>
+      <c r="I113" s="36"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B114" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D114" s="21" t="s">
         <v>46</v>
@@ -4151,34 +4148,40 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="21" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E115" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="E115" s="23"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="21" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E116" s="19"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D117" s="21" t="s">
         <v>48</v>
@@ -4187,818 +4190,816 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B118" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E118" s="19"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B119" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E119" s="19"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21" t="s">
+      <c r="C120" s="21"/>
+      <c r="D120" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="E119" s="23"/>
-      <c r="F119" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="67"/>
-      <c r="B120" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="C120" s="21"/>
-      <c r="D120" s="20" t="s">
-        <v>400</v>
       </c>
       <c r="E120" s="23"/>
       <c r="F120" s="36" t="s">
-        <v>401</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B121" s="21" t="s">
-        <v>177</v>
+      <c r="A121" s="66"/>
+      <c r="B121" s="29" t="s">
+        <v>399</v>
       </c>
       <c r="C121" s="21"/>
-      <c r="D121" s="21" t="s">
-        <v>47</v>
+      <c r="D121" s="20" t="s">
+        <v>400</v>
       </c>
       <c r="E121" s="23"/>
       <c r="F121" s="36" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="66"/>
+      <c r="B122" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="C122" s="21"/>
+      <c r="D122" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="E122" s="23"/>
+      <c r="F122" s="36"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E123" s="23"/>
+      <c r="F123" s="36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="21"/>
-      <c r="C122" s="21" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="21"/>
+      <c r="C124" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D122" s="21" t="s">
+      <c r="D124" s="21" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C123" s="45"/>
-      <c r="D123" s="56"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C125" s="45"/>
+      <c r="D125" s="56"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="35"/>
-      <c r="H124" s="17" t="s">
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="35"/>
+      <c r="H126" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I124" s="68" t="s">
+      <c r="I126" s="68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="55"/>
-      <c r="B125" s="21" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="55"/>
+      <c r="B127" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C127" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D125" s="21" t="s">
+      <c r="D127" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E125" s="35"/>
-      <c r="I125" s="68"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B126" s="21" t="s">
+      <c r="E127" s="35"/>
+      <c r="I127" s="68"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C128" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D126" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E126" s="19"/>
-      <c r="I126" s="68"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B127" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D127" s="21"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I127" s="68"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B128" s="21"/>
-      <c r="C128" s="21" t="s">
-        <v>320</v>
-      </c>
       <c r="D128" s="21" t="s">
-        <v>338</v>
+        <v>47</v>
       </c>
       <c r="E128" s="19"/>
       <c r="I128" s="68"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B129" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D129" s="21"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="I129" s="68"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
+      <c r="B130" s="21"/>
+      <c r="C130" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E130" s="19"/>
+      <c r="I130" s="68"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I131" s="68"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25" t="s">
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E130" s="35"/>
-      <c r="H130" s="17" t="s">
+      <c r="E132" s="35"/>
+      <c r="H132" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I130" s="68"/>
-    </row>
-    <row r="131" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="21" t="s">
+      <c r="I132" s="68"/>
+    </row>
+    <row r="133" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B133" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C133" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D131" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E131" s="19"/>
-      <c r="I131" s="68"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B132" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C132" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D132" s="21"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I132" s="68"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B133" s="21"/>
-      <c r="C133" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D133" s="21"/>
+      <c r="D133" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="E133" s="19"/>
       <c r="I133" s="68"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>320</v>
+        <v>209</v>
       </c>
       <c r="D134" s="21"/>
       <c r="E134" s="19"/>
+      <c r="F134" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="I134" s="68"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B135" s="54"/>
-      <c r="C135" s="54"/>
-      <c r="D135" s="54"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D135" s="21"/>
       <c r="E135" s="19"/>
       <c r="I135" s="68"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H136" s="17" t="s">
+      <c r="B136" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D136" s="21"/>
+      <c r="E136" s="19"/>
+      <c r="I136" s="68"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B137" s="54"/>
+      <c r="C137" s="54"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="19"/>
+      <c r="I137" s="68"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H138" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I136" s="68"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
+      <c r="I138" s="68"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B137" s="25" t="s">
+      <c r="B139" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25" t="s">
+      <c r="C139" s="25"/>
+      <c r="D139" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E137" s="35"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B138" s="38" t="s">
+      <c r="E139" s="35"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B140" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="C138" s="38"/>
-      <c r="D138" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E138" s="19"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="11" t="s">
+      <c r="C140" s="38"/>
+      <c r="D140" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E140" s="19"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="17" t="s">
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H140" s="17" t="s">
+      <c r="H142" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J140" s="39" t="s">
+      <c r="J142" s="39" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B141" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C141" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D141" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E141" s="19"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B142" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C142" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D142" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E142" s="19"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B143" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E143" s="19"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B144" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E144" s="19"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B145" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C143" s="21" t="s">
+      <c r="C145" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D143" s="21"/>
-      <c r="E143" s="19"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="11" t="s">
+      <c r="D145" s="21"/>
+      <c r="E145" s="19"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="35"/>
-      <c r="F145" s="17" t="s">
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H145" s="17" t="s">
+      <c r="H147" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I145" s="23" t="s">
+      <c r="I147" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="J145" s="22" t="s">
+      <c r="J147" s="22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B146" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C146" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D146" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E146" s="19"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B147" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C147" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D147" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E147" s="19"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E148" s="19"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B149" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C149" s="21"/>
+        <v>215</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>215</v>
+      </c>
       <c r="D149" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E149" s="19"/>
-      <c r="F149" s="17" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B150" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E150" s="19"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B151" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E151" s="19"/>
+      <c r="F151" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B152" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C150" s="21"/>
-      <c r="D150" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E150" s="19"/>
-      <c r="F150" s="17" t="s">
+      <c r="C152" s="21"/>
+      <c r="D152" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E152" s="19"/>
+      <c r="F152" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B151" s="21"/>
-      <c r="C151" s="21" t="s">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B153" s="21"/>
+      <c r="C153" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D151" s="21" t="s">
+      <c r="D153" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="E151" s="19"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="11" t="s">
+      <c r="E153" s="19"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B153" s="25"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="35"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="10"/>
-      <c r="B154" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D154" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E154" s="19"/>
-      <c r="F154" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="10"/>
-      <c r="B155" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C155" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D155" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E155" s="19"/>
-      <c r="F155" s="18" t="s">
-        <v>263</v>
-      </c>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="35"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
       <c r="B156" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D156" s="18" t="s">
-        <v>47</v>
+        <v>217</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="E156" s="19"/>
-      <c r="F156" s="18" t="s">
-        <v>95</v>
+      <c r="F156" s="25" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
-      <c r="B157" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>220</v>
+      <c r="B157" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="D157" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="18" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
-      <c r="B158" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C158" s="18" t="s">
-        <v>221</v>
+      <c r="B158" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="B159" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E159" s="19"/>
       <c r="F159" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="B160" s="18" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E160" s="19"/>
       <c r="F160" s="18" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E161" s="19"/>
+      <c r="F161" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="10"/>
+      <c r="B162" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E162" s="19"/>
+      <c r="F162" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="10"/>
+      <c r="B163" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C163" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D163" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F161" s="18" t="s">
+      <c r="F163" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C162" s="45"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="11" t="s">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C164" s="45"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B163" s="25"/>
-      <c r="C163" s="25"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="35"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="10"/>
-      <c r="B164" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C164" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D164" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E164" s="19"/>
-      <c r="F164" s="25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="10"/>
-      <c r="B165" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C165" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D165" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E165" s="19"/>
-      <c r="F165" s="18" t="s">
-        <v>263</v>
-      </c>
+      <c r="B165" s="25"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="35"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E166" s="19"/>
-      <c r="F166" s="18" t="s">
-        <v>95</v>
+      <c r="F166" s="25" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D167" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E167" s="19"/>
       <c r="F167" s="18" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="21" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D168" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E168" s="19"/>
       <c r="F168" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E169" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="E169" s="19"/>
       <c r="F169" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E170" s="19"/>
       <c r="F170" s="18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="B171" s="21" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E171" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="E171" s="24"/>
       <c r="F171" s="18" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="B172" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C172" s="21" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E172" s="19"/>
       <c r="F172" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="10"/>
+      <c r="B173" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E173" s="19"/>
+      <c r="F173" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="10"/>
+      <c r="B174" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E174" s="19"/>
+      <c r="F174" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="11" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="B176" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="25"/>
-      <c r="D174" s="25" t="s">
+      <c r="C176" s="25"/>
+      <c r="D176" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E174" s="35"/>
-      <c r="F174" s="25" t="s">
+      <c r="E176" s="35"/>
+      <c r="F176" s="25" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B175" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C175" s="21"/>
-      <c r="D175" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E175" s="19"/>
-      <c r="F175" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B176" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="E176" s="19"/>
-      <c r="F176" s="18" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B177" s="21" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C177" s="21"/>
-      <c r="D177" s="18" t="s">
+      <c r="D177" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E177" s="19"/>
       <c r="F177" s="18" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B178" s="29" t="s">
-        <v>351</v>
+        <v>255</v>
       </c>
       <c r="C178" s="29"/>
-      <c r="D178" s="29"/>
+      <c r="D178" s="29" t="s">
+        <v>256</v>
+      </c>
       <c r="E178" s="19"/>
-      <c r="F178" s="18"/>
+      <c r="F178" s="18" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B179" s="21" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="C179" s="21"/>
       <c r="D179" s="18" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E179" s="19"/>
       <c r="F179" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B180" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="18"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B181" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C181" s="21"/>
+      <c r="D181" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E181" s="19"/>
+      <c r="F181" s="18" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B180" s="21" t="s">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B182" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C180" s="21"/>
-      <c r="D180" s="21" t="s">
+      <c r="C182" s="21"/>
+      <c r="D182" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E180" s="19"/>
-      <c r="F180" s="18" t="s">
+      <c r="E182" s="19"/>
+      <c r="F182" s="18" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="11" t="s">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B182" s="25" t="s">
+      <c r="B184" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C182" s="25"/>
-      <c r="D182" s="25" t="s">
+      <c r="C184" s="25"/>
+      <c r="D184" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E182" s="35"/>
-      <c r="F182" s="25" t="s">
+      <c r="E184" s="35"/>
+      <c r="F184" s="25" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B183" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C183" s="21"/>
-      <c r="D183" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E183" s="19"/>
-      <c r="F183" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B184" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C184" s="29"/>
-      <c r="D184" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="E184" s="19"/>
-      <c r="F184" s="18" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B185" s="21" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C185" s="21"/>
       <c r="D185" s="18" t="s">
@@ -5006,270 +5007,269 @@
       </c>
       <c r="E185" s="19"/>
       <c r="F185" s="18" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B186" s="29" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="C186" s="29"/>
-      <c r="D186" s="29"/>
+      <c r="D186" s="29" t="s">
+        <v>258</v>
+      </c>
       <c r="E186" s="19"/>
-      <c r="F186" s="18"/>
+      <c r="F186" s="18" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B187" s="21" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="C187" s="21"/>
       <c r="D187" s="18" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E187" s="19"/>
       <c r="F187" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B188" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="18"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B189" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C189" s="21"/>
+      <c r="D189" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E189" s="19"/>
+      <c r="F189" s="18" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B188" s="21" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B190" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C188" s="21"/>
-      <c r="D188" s="21" t="s">
+      <c r="C190" s="21"/>
+      <c r="D190" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E188" s="19"/>
-      <c r="F188" s="18" t="s">
+      <c r="E190" s="19"/>
+      <c r="F190" s="18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="11" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B191" s="23"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="23"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B192" s="23"/>
+      <c r="C192" s="23"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="55"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="23"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="55"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="55"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B190" s="25" t="s">
+      <c r="B197" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C190" s="25"/>
-      <c r="D190" s="25" t="s">
+      <c r="C197" s="25"/>
+      <c r="D197" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E190" s="35"/>
-      <c r="F190" s="25" t="s">
+      <c r="E197" s="35"/>
+      <c r="F197" s="25" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B191" s="21" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B198" s="21" t="s">
         <v>226</v>
-      </c>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E191" s="23"/>
-      <c r="F191" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B192" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E192" s="23"/>
-      <c r="F192" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B193" s="21"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="21"/>
-      <c r="E193" s="23"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B195" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C195" s="25"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="35"/>
-      <c r="F195" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B196" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="C196" s="21"/>
-      <c r="D196" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E196" s="23"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B197" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C197" s="21"/>
-      <c r="D197" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E197" s="23"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B198" s="21" t="s">
-        <v>234</v>
       </c>
       <c r="C198" s="21"/>
       <c r="D198" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E198" s="23"/>
-      <c r="F198" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B199" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C199" s="29"/>
-      <c r="D199" s="29" t="s">
+      <c r="F198" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B199" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E199" s="23"/>
-      <c r="F199" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F199" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B200" s="21"/>
       <c r="C200" s="21"/>
       <c r="D200" s="21"/>
       <c r="E200" s="23"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B201" s="21"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="23"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B202" s="21"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="21"/>
-      <c r="E202" s="23"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A204" s="11" t="s">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B202" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C202" s="25"/>
+      <c r="D202" s="25"/>
+      <c r="E202" s="35"/>
+      <c r="F202" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B203" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E203" s="23"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B204" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E204" s="23"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B205" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E205" s="23"/>
+      <c r="F205" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B206" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C206" s="29"/>
+      <c r="D206" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E206" s="23"/>
+      <c r="F206" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B207" s="21"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="23"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B208" s="21"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="23"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B209" s="21"/>
+      <c r="C209" s="21"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="23"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B204" s="25"/>
-      <c r="C204" s="25"/>
-      <c r="D204" s="25"/>
-      <c r="E204" s="35"/>
-      <c r="I204" s="17" t="s">
+      <c r="B211" s="25"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
+      <c r="E211" s="35"/>
+      <c r="I211" s="17" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="23"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B206" s="21"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="23"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B208" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C208" s="25"/>
-      <c r="D208" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E208" s="35"/>
-      <c r="F208" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B209" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C209" s="21"/>
-      <c r="D209" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E209" s="23"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B210" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C210" s="21"/>
-      <c r="D210" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E210" s="23"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B211" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="C211" s="29"/>
-      <c r="D211" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E211" s="24"/>
-    </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B212" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C212" s="18"/>
-      <c r="D212" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="B212" s="21"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
       <c r="E212" s="23"/>
-      <c r="F212" s="17" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B213" s="21" t="s">
-        <v>177</v>
-      </c>
+      <c r="B213" s="21"/>
       <c r="C213" s="21"/>
-      <c r="D213" s="18"/>
-      <c r="E213" s="19"/>
-      <c r="F213" s="17" t="s">
-        <v>135</v>
-      </c>
+      <c r="D213" s="21"/>
+      <c r="E213" s="23"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C215" s="25"/>
       <c r="D215" s="25" t="s">
@@ -5279,23 +5279,20 @@
       <c r="F215" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="I215" s="23" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B216" s="21" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C216" s="21"/>
       <c r="D216" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E216" s="23"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B217" s="21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C217" s="21"/>
       <c r="D217" s="21" t="s">
@@ -5339,20 +5336,26 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C222" s="25"/>
       <c r="D222" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E222" s="35"/>
+      <c r="F222" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I222" s="23" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B223" s="21" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C223" s="21"/>
       <c r="D223" s="21" t="s">
@@ -5362,7 +5365,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B224" s="21" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="C224" s="21"/>
       <c r="D224" s="21" t="s">
@@ -5370,178 +5373,182 @@
       </c>
       <c r="E224" s="23"/>
     </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B225" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C225" s="29"/>
+      <c r="D225" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E225" s="24"/>
+    </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="17"/>
-      <c r="B226" s="40" t="s">
+      <c r="B226" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C226" s="18"/>
+      <c r="D226" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E226" s="23"/>
+      <c r="F226" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B227" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C227" s="21"/>
+      <c r="D227" s="18"/>
+      <c r="E227" s="19"/>
+      <c r="F227" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B229" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="C226" s="40"/>
-      <c r="D226" s="40" t="s">
+      <c r="C229" s="25"/>
+      <c r="D229" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E229" s="35"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B230" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="E226" s="40"/>
-      <c r="F226" s="40" t="s">
+      <c r="C230" s="21"/>
+      <c r="D230" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E230" s="23"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B231" s="21" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A227" s="17"/>
-      <c r="B227" s="41">
+      <c r="C231" s="21"/>
+      <c r="D231" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E231" s="23"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="17"/>
+      <c r="B233" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C233" s="40"/>
+      <c r="D233" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="E233" s="40"/>
+      <c r="F233" s="40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A234" s="17"/>
+      <c r="B234" s="41">
         <v>1</v>
       </c>
-      <c r="C227" s="41"/>
-      <c r="D227" s="42" t="s">
+      <c r="C234" s="41"/>
+      <c r="D234" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="E227" s="42"/>
-      <c r="F227" s="42" t="s">
+      <c r="E234" s="42"/>
+      <c r="F234" s="42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="17"/>
-      <c r="B228" s="41">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="17"/>
+      <c r="B235" s="41">
         <v>2</v>
       </c>
-      <c r="C228" s="41"/>
-      <c r="D228" s="42" t="s">
+      <c r="C235" s="41"/>
+      <c r="D235" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E228" s="42"/>
-      <c r="F228" s="42" t="s">
+      <c r="E235" s="42"/>
+      <c r="F235" s="42" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A229" s="17"/>
-      <c r="B229" s="41">
+    <row r="236" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A236" s="17"/>
+      <c r="B236" s="41">
         <v>3</v>
       </c>
-      <c r="C229" s="41"/>
-      <c r="D229" s="42" t="s">
+      <c r="C236" s="41"/>
+      <c r="D236" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E229" s="42"/>
-      <c r="F229" s="42" t="s">
+      <c r="E236" s="42"/>
+      <c r="F236" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="17"/>
-      <c r="B230" s="41">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="17"/>
+      <c r="B237" s="41">
         <v>4</v>
       </c>
-      <c r="C230" s="41"/>
-      <c r="D230" s="42" t="s">
+      <c r="C237" s="41"/>
+      <c r="D237" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="E230" s="42"/>
-      <c r="F230" s="42" t="s">
+      <c r="E237" s="42"/>
+      <c r="F237" s="42" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A231" s="17"/>
-      <c r="B231" s="41">
+    <row r="238" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A238" s="17"/>
+      <c r="B238" s="41">
         <v>5</v>
       </c>
-      <c r="C231" s="41"/>
-      <c r="D231" s="42" t="s">
+      <c r="C238" s="41"/>
+      <c r="D238" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E231" s="42"/>
-      <c r="F231" s="42" t="s">
+      <c r="E238" s="42"/>
+      <c r="F238" s="42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A232" s="17"/>
-      <c r="B232" s="41">
+    <row r="239" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A239" s="17"/>
+      <c r="B239" s="41">
         <v>6</v>
       </c>
-      <c r="C232" s="41"/>
-      <c r="D232" s="42" t="s">
+      <c r="C239" s="41"/>
+      <c r="D239" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="E232" s="42"/>
-      <c r="F232" s="42" t="s">
+      <c r="E239" s="42"/>
+      <c r="F239" s="42" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="11" t="s">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B234" s="65"/>
-      <c r="C234" s="65"/>
-      <c r="D234" s="65"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B235" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C235" s="18"/>
-      <c r="D235" s="18"/>
-      <c r="E235" s="18"/>
-      <c r="F235" s="18"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B236" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B237" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C237" s="18"/>
-      <c r="D237" s="18"/>
-      <c r="E237" s="18"/>
-      <c r="F237" s="18"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B238" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="C238" s="18"/>
-      <c r="D238" s="18"/>
-      <c r="E238" s="18"/>
-      <c r="F238" s="18"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B239" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="C239" s="18"/>
-      <c r="D239" s="18"/>
-      <c r="E239" s="18"/>
-      <c r="F239" s="18"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B240" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="C240" s="18"/>
-      <c r="D240" s="18"/>
-      <c r="E240" s="18"/>
-      <c r="F240" s="18"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B241" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="C241" s="18"/>
-      <c r="D241" s="18"/>
-      <c r="E241" s="18"/>
-      <c r="F241" s="18"/>
+      <c r="B241" s="65"/>
+      <c r="C241" s="65"/>
+      <c r="D241" s="65"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B242" s="21" t="s">
-        <v>357</v>
+        <v>187</v>
       </c>
       <c r="C242" s="18"/>
       <c r="D242" s="18"/>
@@ -5550,7 +5557,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B243" s="21" t="s">
-        <v>358</v>
+        <v>203</v>
       </c>
       <c r="C243" s="18"/>
       <c r="D243" s="18"/>
@@ -5559,237 +5566,223 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B244" s="21" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="C244" s="18"/>
       <c r="D244" s="18"/>
       <c r="E244" s="18"/>
       <c r="F244" s="18"/>
     </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B245" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C245" s="18"/>
+      <c r="D245" s="18"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="18"/>
+    </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="11" t="s">
+      <c r="B246" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C246" s="18"/>
+      <c r="D246" s="18"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="18"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B247" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C247" s="18"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="18"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B248" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C248" s="18"/>
+      <c r="D248" s="18"/>
+      <c r="E248" s="18"/>
+      <c r="F248" s="18"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B249" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C249" s="18"/>
+      <c r="D249" s="18"/>
+      <c r="E249" s="18"/>
+      <c r="F249" s="18"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B250" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C250" s="18"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="18"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B251" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C251" s="18"/>
+      <c r="D251" s="18"/>
+      <c r="E251" s="18"/>
+      <c r="F251" s="18"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="B246" s="25"/>
-      <c r="C246" s="25"/>
-      <c r="D246" s="25"/>
-      <c r="F246" s="17" t="s">
+      <c r="B253" s="25"/>
+      <c r="C253" s="25"/>
+      <c r="D253" s="25"/>
+      <c r="F253" s="17" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B247" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D247" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F247" s="17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="72"/>
-      <c r="B248" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D248" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F248" s="36" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B249" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D249" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F249" s="23" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B250" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D250" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F250" s="17" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B251" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="D251" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F251" s="17" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B252" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="D252" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F252" s="17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B253" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="D253" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F253" s="17" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B254" s="17" t="s">
-        <v>396</v>
+        <v>187</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F254" s="17" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B255" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="D255" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F255" s="17" t="s">
-        <v>452</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="67"/>
+      <c r="B255" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D255" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F255" s="36" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B256" s="17" t="s">
-        <v>402</v>
+        <v>247</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F256" s="17" t="s">
-        <v>423</v>
+        <v>60</v>
+      </c>
+      <c r="F256" s="23" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B257" s="17" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F257" s="17" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B258" s="17" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F258" s="17" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B259" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F259" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B260" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>47</v>
+        <v>370</v>
+      </c>
+      <c r="D260" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="F260" s="17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B261" s="17" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F261" s="17" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B262" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="D262" s="17" t="s">
-        <v>47</v>
+        <v>440</v>
+      </c>
+      <c r="D262" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B263" s="17" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F263" s="17" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B264" s="17" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F264" s="17" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B265" s="17" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B266" s="17" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D266" s="17" t="s">
         <v>47</v>
@@ -5800,7 +5793,7 @@
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B267" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D267" s="17" t="s">
         <v>47</v>
@@ -5811,7 +5804,7 @@
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B268" s="17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D268" s="17" t="s">
         <v>47</v>
@@ -5822,7 +5815,7 @@
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B269" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D269" s="17" t="s">
         <v>47</v>
@@ -5833,7 +5826,7 @@
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B270" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D270" s="17" t="s">
         <v>47</v>
@@ -5844,7 +5837,7 @@
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B271" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D271" s="17" t="s">
         <v>47</v>
@@ -5855,7 +5848,7 @@
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B272" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D272" s="17" t="s">
         <v>47</v>
@@ -5864,9 +5857,9 @@
         <v>421</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B273" s="17" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="D273" s="17" t="s">
         <v>47</v>
@@ -5875,9 +5868,9 @@
         <v>421</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B274" s="17" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D274" s="17" t="s">
         <v>47</v>
@@ -5886,394 +5879,387 @@
         <v>421</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B275" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D275" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F275" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B276" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D276" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F276" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B277" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D277" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F277" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B278" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F278" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B279" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D279" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F279" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B280" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D280" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F280" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B281" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F281" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B282" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="D275" s="17" t="s">
+      <c r="D282" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F275" s="17" t="s">
+      <c r="F282" s="17" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B276" s="17" t="s">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B283" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="D276" s="17" t="s">
+      <c r="D283" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F276" s="17" t="s">
+      <c r="F283" s="17" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B277" s="17" t="s">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B284" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="D277" s="17" t="s">
+      <c r="D284" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F277" s="17" t="s">
+      <c r="F284" s="17" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B278" s="17" t="s">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B285" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="D278" s="17" t="s">
+      <c r="D285" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F278" s="17" t="s">
+      <c r="F285" s="17" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B279" s="17" t="s">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B286" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="D279" s="17" t="s">
+      <c r="D286" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F279" s="17" t="s">
+      <c r="F286" s="17" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B280" s="17" t="s">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B287" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="D280" s="17" t="s">
+      <c r="D287" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="F280" s="17" t="s">
+      <c r="F287" s="17" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B281" s="17" t="s">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B288" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="D281" s="17" t="s">
+      <c r="D288" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="F281" s="17" t="s">
+      <c r="F288" s="17" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B282" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="D282" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="F282" s="17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B283" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="D283" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="F283" s="17" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B284" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="D284" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="F284" s="17" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B285" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="D285" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="F285" s="17" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B287" s="25"/>
-      <c r="C287" s="25"/>
-      <c r="D287" s="25"/>
-      <c r="F287" s="17" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B288" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F288" s="17" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B289" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="D289" s="23" t="s">
-        <v>47</v>
+        <v>404</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B290" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D290" s="23" t="s">
-        <v>45</v>
+        <v>391</v>
+      </c>
+      <c r="D290" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B291" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D291" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F291" s="36" t="s">
-        <v>411</v>
+        <v>405</v>
+      </c>
+      <c r="D291" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F291" s="17" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B292" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D292" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F292" s="23" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B293" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="D293" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F293" s="23" t="s">
-        <v>462</v>
+        <v>394</v>
+      </c>
+      <c r="D292" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F292" s="17" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B294" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="D294" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="A294" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B294" s="25"/>
+      <c r="C294" s="25"/>
+      <c r="D294" s="25"/>
       <c r="F294" s="17" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B295" s="17" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="D295" s="23" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F295" s="17" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B296" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D296" s="23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F296" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B297" s="17" t="s">
-        <v>438</v>
+        <v>187</v>
       </c>
       <c r="D297" s="23" t="s">
         <v>45</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B298" s="17" t="s">
-        <v>439</v>
+        <v>203</v>
       </c>
       <c r="D298" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F298" s="17" t="s">
-        <v>459</v>
+        <v>47</v>
+      </c>
+      <c r="F298" s="36" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B299" s="17" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D299" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F299" s="17" t="s">
-        <v>452</v>
+        <v>60</v>
+      </c>
+      <c r="F299" s="23" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F300" s="17" t="s">
-        <v>423</v>
+        <v>60</v>
+      </c>
+      <c r="F300" s="23" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
-        <v>413</v>
+        <v>223</v>
       </c>
       <c r="D301" s="23" t="s">
         <v>45</v>
       </c>
       <c r="F301" s="17" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="D302" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F302" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B303" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="D303" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F302" s="17" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="17"/>
-      <c r="B303" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="D303" s="23" t="s">
-        <v>47</v>
-      </c>
       <c r="F303" s="17" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F304" s="17" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F305" s="17" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
-        <v>376</v>
+        <v>440</v>
       </c>
       <c r="D306" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F306" s="17" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="D307" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F307" s="17" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="17"/>
       <c r="B308" s="17" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="D308" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F308" s="17" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="D309" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F309" s="17" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D310" s="23" t="s">
         <v>47</v>
@@ -6285,7 +6271,7 @@
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D311" s="23" t="s">
         <v>47</v>
@@ -6297,7 +6283,7 @@
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D312" s="23" t="s">
         <v>47</v>
@@ -6309,7 +6295,7 @@
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="17"/>
       <c r="B313" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D313" s="23" t="s">
         <v>47</v>
@@ -6321,7 +6307,7 @@
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D314" s="23" t="s">
         <v>47</v>
@@ -6333,7 +6319,7 @@
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D315" s="23" t="s">
         <v>47</v>
@@ -6345,7 +6331,7 @@
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D316" s="23" t="s">
         <v>47</v>
@@ -6357,7 +6343,7 @@
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="17"/>
       <c r="B317" s="17" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="D317" s="23" t="s">
         <v>47</v>
@@ -6369,7 +6355,7 @@
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D318" s="23" t="s">
         <v>47</v>
@@ -6381,264 +6367,404 @@
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D319" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F319" s="17" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="17"/>
       <c r="B320" s="17" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D320" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F320" s="17" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D321" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F321" s="17" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D322" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F322" s="17" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D323" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F323" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" s="17"/>
+      <c r="B324" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D324" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F324" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" s="17"/>
+      <c r="B325" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="D325" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F325" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" s="17"/>
+      <c r="B326" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D326" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F326" s="17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" s="17"/>
+      <c r="B327" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D327" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F327" s="17" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" s="17"/>
+      <c r="B328" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="D328" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F328" s="17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" s="17"/>
+      <c r="B329" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D329" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F329" s="17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="17"/>
+      <c r="B330" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="D323" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F323" s="17" t="s">
+      <c r="D330" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F330" s="17" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B324" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D324" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F324" s="17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B325" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="D325" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F325" s="17" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B326" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="D326" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F326" s="17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B327" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="D327" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F327" s="17" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B328" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="D328" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F328" s="17" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B330" s="25"/>
-      <c r="C330" s="25"/>
-      <c r="D330" s="25"/>
-      <c r="F330" s="17" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B331" s="17" t="s">
-        <v>434</v>
+        <v>390</v>
+      </c>
+      <c r="D331" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="F331" s="17" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B332" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="F332" s="23" t="s">
-        <v>456</v>
+        <v>403</v>
+      </c>
+      <c r="D332" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F332" s="17" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B333" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="F333" s="23" t="s">
-        <v>463</v>
+        <v>404</v>
+      </c>
+      <c r="D333" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F333" s="17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B334" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="F334" s="23" t="s">
-        <v>464</v>
+        <v>391</v>
+      </c>
+      <c r="D334" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F334" s="17" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B335" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D335" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F335" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B337" s="25"/>
+      <c r="C337" s="25"/>
+      <c r="D337" s="25"/>
+      <c r="F337" s="17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B338" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="D338" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F338" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B339" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D339" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F339" s="23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B340" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D340" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F340" s="23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B341" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D341" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F341" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="G341" s="23"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B342" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="F335" s="23" t="s">
+      <c r="D342" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F342" s="23" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B336" s="17" t="s">
+      <c r="G342" s="23"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B343" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="F336" s="23" t="s">
+      <c r="D343" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F343" s="23" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B337" s="17" t="s">
+      <c r="G343" s="23"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B344" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="F337" s="23" t="s">
+      <c r="D344" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F344" s="23" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B338" s="17" t="s">
+      <c r="G344" s="23"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B345" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="F338" s="23" t="s">
+      <c r="D345" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F345" s="23" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B339" s="17" t="s">
+      <c r="G345" s="23"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B346" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="F339" s="23" t="s">
+      <c r="D346" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F346" s="23" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B340" s="17" t="s">
+      <c r="G346" s="23"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B347" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="F340" s="23" t="s">
+      <c r="D347" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F347" s="23" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B341" s="17" t="s">
+      <c r="G347" s="23"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B348" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="F341" s="23" t="s">
+      <c r="D348" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F348" s="23" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B342" s="17" t="s">
+      <c r="G348" s="23"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B349" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="F342" s="17" t="s">
+      <c r="D349" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F349" s="17" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B343" s="17" t="s">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B350" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F343" s="17" t="s">
+      <c r="D350" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F350" s="17" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B344" s="17" t="s">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B351" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="F344" s="17" t="s">
+      <c r="D351" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F351" s="17" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B345" s="17" t="s">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B352" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="F345" s="17" t="s">
+      <c r="D352" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F352" s="17" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B346" s="17" t="s">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B353" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="F346" s="17" t="s">
+      <c r="D353" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F353" s="17" t="s">
         <v>408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I124:I136"/>
+    <mergeCell ref="I126:I138"/>
     <mergeCell ref="F42:H42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J140" r:id="rId1" xr:uid="{C542003A-DE46-4D98-A11B-9CC195E7F11A}"/>
+    <hyperlink ref="J142" r:id="rId1" xr:uid="{C542003A-DE46-4D98-A11B-9CC195E7F11A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId2"/>
@@ -6650,8 +6776,8 @@
   <dimension ref="A1:N240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B156" sqref="B156"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
